--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81901\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\3年\GameContest2023\2DHukuokaGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142E8EA-ADA3-461C-89D5-04ED469E5D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C3674-6363-4CD3-AA81-F3D5F0A22560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="640">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -7999,6 +7999,25 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スラスラタイム終了時は、専用の敵は点滅しながら削除する</t>
+    <rPh sb="8" eb="11">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8974,7 +8993,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8983,19 +9026,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9004,112 +9053,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9128,18 +9282,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9172,173 +9314,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9358,7 +9377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9367,7 +9386,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25553,49 +25572,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25607,17 +25626,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25629,20 +25648,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25651,18 +25670,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25671,20 +25690,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25693,16 +25712,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25711,16 +25730,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25729,20 +25748,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25751,18 +25770,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25771,16 +25790,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25789,18 +25808,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25809,134 +25828,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25949,26 +25969,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27306,20 +27325,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="153" t="s">
@@ -27729,79 +27748,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27818,11 +27769,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28052,7 +28071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:J56"/>
+  <dimension ref="B1:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B45" sqref="B45:J45"/>
@@ -28069,43 +28088,43 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="24" t="s">
@@ -28121,25 +28140,25 @@
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="75" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="24" t="s">
@@ -28155,308 +28174,308 @@
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="87"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="91"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="92">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="93"/>
-      <c r="C20" s="101" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="93"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="94"/>
-      <c r="C22" s="108" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="92">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="93"/>
-      <c r="C24" s="111" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="94"/>
-      <c r="C25" s="108" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="92">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="93"/>
-      <c r="C27" s="114" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="94"/>
-      <c r="C28" s="103" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="92">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="93"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="93"/>
-      <c r="C31" s="111" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="94"/>
-      <c r="C32" s="108" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="138">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="40"/>
-      <c r="C36" s="140" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="142"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="139"/>
-      <c r="C37" s="108" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="92">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="126"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="93"/>
-      <c r="C39" s="104" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
       <c r="D39" s="78"/>
@@ -28465,147 +28484,147 @@
       <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="94"/>
-      <c r="C40" s="127" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="129"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="146"/>
-      <c r="C42" s="133" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="134"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="147"/>
-      <c r="C43" s="135" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="137"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="140" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="2:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="135" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="137" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="138" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="139"/>
     </row>
     <row r="47" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="143" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67" t="s">
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67" t="s">
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="144" t="s">
         <v>637</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="145"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="144" t="s">
         <v>635</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="147"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
@@ -28632,23 +28651,42 @@
         <v>634</v>
       </c>
     </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28665,35 +28703,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29631,98 +29655,98 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="143" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="133" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="134"/>
+      <c r="E19" s="143" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="133"/>
+      <c r="G19" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="134"/>
+      <c r="I19" s="143" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="133"/>
+      <c r="K19" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="133"/>
+      <c r="O19" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="P19" s="68"/>
+      <c r="P19" s="134"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
@@ -29771,17 +29795,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29798,6 +29811,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\3年\GameContest2023\2DHukuokaGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Documents\HukuokaGameContest\2DHukuokaGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C3674-6363-4CD3-AA81-F3D5F0A22560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新内容" sheetId="11" r:id="rId1"/>
@@ -8025,7 +8024,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8993,10 +8992,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9005,265 +9073,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9282,6 +9146,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9314,50 +9190,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9377,7 +9376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9386,7 +9385,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25561,60 +25560,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="2:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="29">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="50">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="32">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25626,17 +25625,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="47" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="50">
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="32">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25648,20 +25647,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="49" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="44">
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="34">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25670,18 +25669,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="49" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25690,20 +25689,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="49" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="44">
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="34">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25712,16 +25711,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25730,16 +25729,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25748,20 +25747,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="44">
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="34">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25770,18 +25769,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25790,16 +25789,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25808,18 +25807,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="49" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25828,135 +25827,134 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="41">
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="40">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="51"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="51"/>
+    </row>
+    <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25969,25 +25967,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25995,175 +25994,175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>550</v>
       </c>
@@ -26176,227 +26175,227 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>442</v>
       </c>
@@ -26410,140 +26409,140 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>412</v>
       </c>
@@ -26555,192 +26554,192 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A158"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>543</v>
       </c>
@@ -26753,84 +26752,84 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>596</v>
       </c>
@@ -26843,79 +26842,79 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>462</v>
       </c>
@@ -26927,14 +26926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>347</v>
       </c>
@@ -26945,7 +26944,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -26957,7 +26956,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -26968,7 +26967,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -26979,7 +26978,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="S6" t="s">
         <v>122</v>
       </c>
@@ -26987,7 +26986,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>348</v>
       </c>
@@ -27001,7 +27000,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -27012,7 +27011,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -27026,7 +27025,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="S10" t="s">
         <v>127</v>
       </c>
@@ -27034,7 +27033,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>355</v>
       </c>
@@ -27048,7 +27047,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>354</v>
       </c>
@@ -27056,7 +27055,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -27067,12 +27066,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="Y14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>357</v>
       </c>
@@ -27083,12 +27082,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="J16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J17" t="s">
         <v>131</v>
       </c>
@@ -27096,7 +27095,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J18" t="s">
         <v>132</v>
       </c>
@@ -27104,12 +27103,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="10:25" x14ac:dyDescent="0.4">
       <c r="Y19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J20" s="9" t="s">
         <v>39</v>
       </c>
@@ -27117,12 +27116,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J22" t="s">
         <v>134</v>
       </c>
@@ -27130,7 +27129,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J23" t="s">
         <v>155</v>
       </c>
@@ -27138,17 +27137,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="10:25" x14ac:dyDescent="0.4">
       <c r="Y24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J25" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J26" t="s">
         <v>136</v>
       </c>
@@ -27156,7 +27155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J27" t="s">
         <v>137</v>
       </c>
@@ -27164,7 +27163,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J28" t="s">
         <v>138</v>
       </c>
@@ -27172,18 +27171,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="10:25" x14ac:dyDescent="0.4">
       <c r="Y29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J30" s="8" t="s">
         <v>139</v>
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
         <v>140</v>
       </c>
@@ -27191,7 +27190,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
         <v>141</v>
       </c>
@@ -27199,7 +27198,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J33" t="s">
         <v>142</v>
       </c>
@@ -27207,98 +27206,98 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J35" s="6" t="s">
         <v>95</v>
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J40" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J42" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J44" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J46" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J48" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J49" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J52" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J53" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J54" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J56" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J58" t="s">
         <v>181</v>
       </c>
@@ -27311,7 +27310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27319,28 +27318,28 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I1" s="157"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
         <v>4</v>
       </c>
@@ -27358,7 +27357,7 @@
       </c>
       <c r="I2" s="153"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="153" t="s">
         <v>5</v>
       </c>
@@ -27376,7 +27375,7 @@
       </c>
       <c r="I3" s="153"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="153" t="s">
         <v>2</v>
       </c>
@@ -27394,7 +27393,7 @@
       </c>
       <c r="I4" s="153"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="153" t="s">
         <v>3</v>
       </c>
@@ -27412,7 +27411,7 @@
       </c>
       <c r="I5" s="153"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="153" t="s">
         <v>6</v>
       </c>
@@ -27430,7 +27429,7 @@
       </c>
       <c r="I6" s="153"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="153" t="s">
         <v>7</v>
       </c>
@@ -27448,7 +27447,7 @@
       </c>
       <c r="I7" s="153"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="153" t="s">
         <v>8</v>
       </c>
@@ -27466,7 +27465,7 @@
       </c>
       <c r="I8" s="153"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="153" t="s">
         <v>20</v>
       </c>
@@ -27484,7 +27483,7 @@
       </c>
       <c r="I9" s="153"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="153" t="s">
         <v>21</v>
       </c>
@@ -27502,7 +27501,7 @@
       </c>
       <c r="I10" s="153"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="153" t="s">
         <v>27</v>
       </c>
@@ -27520,7 +27519,7 @@
       </c>
       <c r="I11" s="153"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="153" t="s">
         <v>31</v>
       </c>
@@ -27538,7 +27537,7 @@
       </c>
       <c r="I12" s="153"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="153" t="s">
         <v>32</v>
       </c>
@@ -27556,7 +27555,7 @@
       </c>
       <c r="I13" s="153"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="153" t="s">
         <v>33</v>
       </c>
@@ -27574,7 +27573,7 @@
       </c>
       <c r="I14" s="153"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="153" t="s">
         <v>34</v>
       </c>
@@ -27592,7 +27591,7 @@
       </c>
       <c r="I15" s="153"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="153" t="s">
         <v>35</v>
       </c>
@@ -27610,7 +27609,7 @@
       </c>
       <c r="I16" s="153"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="153" t="s">
         <v>45</v>
       </c>
@@ -27628,7 +27627,7 @@
       </c>
       <c r="I17" s="153"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="153" t="s">
         <v>58</v>
       </c>
@@ -27646,7 +27645,7 @@
       </c>
       <c r="I18" s="153"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="153" t="s">
         <v>72</v>
       </c>
@@ -27662,7 +27661,7 @@
       <c r="H19" s="153"/>
       <c r="I19" s="153"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="153" t="s">
         <v>75</v>
       </c>
@@ -27678,7 +27677,7 @@
       <c r="H20" s="153"/>
       <c r="I20" s="153"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="153" t="s">
         <v>78</v>
       </c>
@@ -27692,7 +27691,7 @@
       </c>
       <c r="F21" s="153"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="153" t="s">
         <v>94</v>
       </c>
@@ -27706,7 +27705,7 @@
       </c>
       <c r="F22" s="153"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="153" t="s">
         <v>146</v>
       </c>
@@ -27720,7 +27719,7 @@
       </c>
       <c r="F23" s="156"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="153" t="s">
         <v>148</v>
       </c>
@@ -27734,7 +27733,7 @@
       </c>
       <c r="F24" s="153"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="153" t="s">
         <v>171</v>
       </c>
@@ -27748,11 +27747,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27769,79 +27836,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27849,14 +27848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -27873,7 +27872,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>233</v>
       </c>
@@ -27890,7 +27889,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>234</v>
       </c>
@@ -27907,7 +27906,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>235</v>
       </c>
@@ -27924,7 +27923,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>231</v>
       </c>
@@ -27935,7 +27934,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>232</v>
       </c>
@@ -27946,12 +27945,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>237</v>
       </c>
@@ -27965,7 +27964,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>239</v>
       </c>
@@ -27979,17 +27978,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>244</v>
       </c>
@@ -28006,57 +28005,57 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F40" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F42" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F43" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F44" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
         <v>259</v>
       </c>
@@ -28070,63 +28069,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B45" sqref="B45:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-    </row>
-    <row r="3" spans="2:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
-    </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
@@ -28136,31 +28135,31 @@
       <c r="F5" s="78"/>
       <c r="G5" s="79"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
@@ -28170,312 +28169,312 @@
       <c r="F8" s="78"/>
       <c r="G8" s="79"/>
     </row>
-    <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F10" s="72"/>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
-    </row>
-    <row r="12" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-    </row>
-    <row r="13" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+    </row>
+    <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F13" s="72"/>
+      <c r="G13" s="87"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
-    </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="88"/>
+    </row>
+    <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
-    </row>
-    <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="98" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="91"/>
+    </row>
+    <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="95" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="65">
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+    </row>
+    <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="92">
         <v>44880</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="93"/>
+      <c r="C20" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="93"/>
+      <c r="C21" s="103" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
-    </row>
-    <row r="22" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+    </row>
+    <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="94"/>
+      <c r="C22" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-    </row>
-    <row r="23" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="65">
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+    </row>
+    <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="92">
         <v>44881</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="93"/>
+      <c r="C24" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-    </row>
-    <row r="25" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="94"/>
+      <c r="C25" s="108" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-    </row>
-    <row r="26" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="65">
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="92">
         <v>44882</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="93"/>
+      <c r="C27" s="114" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
+    </row>
+    <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="94"/>
+      <c r="C28" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-    </row>
-    <row r="29" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="65">
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+    </row>
+    <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="92">
         <v>44883</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="93"/>
+      <c r="C30" s="117" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="93"/>
+      <c r="C31" s="111" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-    </row>
-    <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
+    </row>
+    <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="94"/>
+      <c r="C32" s="108" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+    </row>
+    <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="120" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-    </row>
-    <row r="34" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
+    </row>
+    <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="63">
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
+    </row>
+    <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="138">
         <v>44886</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="144"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="40"/>
+      <c r="C36" s="140" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="139"/>
+      <c r="C37" s="108" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-    </row>
-    <row r="38" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="65">
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
+    </row>
+    <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="92">
         <v>44887</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="125" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="93"/>
+      <c r="C39" s="104" t="s">
         <v>488</v>
       </c>
       <c r="D39" s="78"/>
@@ -28483,210 +28482,196 @@
       <c r="F39" s="78"/>
       <c r="G39" s="79"/>
     </row>
-    <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
+    <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="94"/>
+      <c r="C40" s="127" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="80" t="s">
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="129"/>
+    </row>
+    <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="145" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="130" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="132"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="146"/>
+      <c r="C42" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="43" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="134"/>
+    </row>
+    <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="147"/>
+      <c r="C43" s="135" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-    </row>
-    <row r="44" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
+    </row>
+    <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="140" t="s">
+    <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
-    </row>
-    <row r="46" spans="2:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="135" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+    </row>
+    <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="138" t="s">
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="138"/>
-      <c r="J46" s="139"/>
-    </row>
-    <row r="47" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="143" t="s">
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
+    </row>
+    <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133" t="s">
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I48" s="41"/>
+      <c r="J48" s="51"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I49" s="41"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="144" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="F50" s="145"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="144" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="I50" s="145"/>
-      <c r="J50" s="147"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>639</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28703,21 +28688,35 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28727,204 +28726,204 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -28937,204 +28936,204 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>556</v>
       </c>
@@ -29147,79 +29146,79 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:13" x14ac:dyDescent="0.4">
       <c r="I18" s="17"/>
       <c r="M18" s="17"/>
     </row>
@@ -29231,34 +29230,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -29270,7 +29269,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -29282,7 +29281,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -29294,7 +29293,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>427</v>
       </c>
@@ -29306,7 +29305,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -29316,7 +29315,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -29328,7 +29327,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -29340,53 +29339,53 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>429</v>
       </c>
@@ -29398,159 +29397,159 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>330</v>
       </c>
@@ -29562,67 +29561,67 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="148" t="s">
         <v>75</v>
       </c>
@@ -29654,147 +29653,158 @@
       </c>
       <c r="P18" s="150"/>
     </row>
-    <row r="19" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="143" t="s">
+    <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="143" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="143" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="L19" s="134"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="P19" s="134"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P19" s="68"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P20" s="51"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P21" s="53"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>579</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29811,17 +29821,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29831,96 +29830,96 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>509</v>
       </c>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="641">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -8017,6 +8017,19 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フィーバー中の背景調整</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8992,7 +9005,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9001,19 +9038,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9022,112 +9065,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9146,18 +9294,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9190,173 +9326,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9376,7 +9389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9385,7 +9398,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10200,8 +10213,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2975610" y="8637270"/>
-          <a:ext cx="209550" cy="209550"/>
+          <a:off x="3036570" y="8997315"/>
+          <a:ext cx="209550" cy="219075"/>
           <a:chOff x="8012430" y="8823960"/>
           <a:chExt cx="266700" cy="266700"/>
         </a:xfrm>
@@ -10469,7 +10482,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7105650" y="8728711"/>
+          <a:off x="7258050" y="9098281"/>
           <a:ext cx="209550" cy="209550"/>
           <a:chOff x="8012430" y="8823960"/>
           <a:chExt cx="266700" cy="266700"/>
@@ -25571,49 +25584,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25625,17 +25638,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25647,20 +25660,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25669,18 +25682,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25689,20 +25702,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25711,16 +25724,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25729,16 +25742,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25747,20 +25760,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25769,18 +25782,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25789,16 +25802,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25807,18 +25820,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25827,134 +25840,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25967,26 +25981,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27324,20 +27337,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27747,79 +27760,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27836,11 +27781,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28070,10 +28083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J57"/>
+  <dimension ref="B1:J58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:J45"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28087,43 +28100,43 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
@@ -28139,25 +28152,25 @@
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="75" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
@@ -28173,308 +28186,308 @@
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="87"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="91"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="92">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="93"/>
-      <c r="C20" s="101" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="93"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="94"/>
-      <c r="C22" s="108" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="93"/>
-      <c r="C24" s="111" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="94"/>
-      <c r="C25" s="108" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="92">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="93"/>
-      <c r="C27" s="114" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="94"/>
-      <c r="C28" s="103" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="92">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="93"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="93"/>
-      <c r="C31" s="111" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="94"/>
-      <c r="C32" s="108" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="138">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="140" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="142"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="139"/>
-      <c r="C37" s="108" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="92">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="126"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="93"/>
-      <c r="C39" s="104" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
       <c r="D39" s="78"/>
@@ -28483,147 +28496,147 @@
       <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="94"/>
-      <c r="C40" s="127" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="129"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="146"/>
-      <c r="C42" s="133" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="134"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="147"/>
-      <c r="C43" s="135" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="137"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="140" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="135" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="137" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="138" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="139"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="143" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67" t="s">
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67" t="s">
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="144" t="s">
         <v>637</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="145"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="144" t="s">
         <v>635</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="147"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28655,23 +28668,42 @@
         <v>639</v>
       </c>
     </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28688,35 +28720,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29654,98 +29672,98 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="143" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="133" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="134"/>
+      <c r="E19" s="143" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="133"/>
+      <c r="G19" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="134"/>
+      <c r="I19" s="143" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="133"/>
+      <c r="K19" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="133"/>
+      <c r="O19" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="P19" s="68"/>
+      <c r="P19" s="134"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29794,17 +29812,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29821,6 +29828,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="639">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -7958,16 +7958,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・スコアの見せ方</t>
-    <rPh sb="5" eb="6">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>細かい演出</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7998,25 +7988,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・スラスラタイム終了時は、専用の敵は点滅しながら削除する</t>
-    <rPh sb="8" eb="11">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9005,10 +8976,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9017,265 +9057,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9294,6 +9130,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9326,50 +9174,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9389,7 +9360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9398,7 +9369,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15551,8 +15522,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="1996440"/>
-          <a:ext cx="7780020" cy="2034540"/>
+          <a:off x="152400" y="2072640"/>
+          <a:ext cx="7947660" cy="2120265"/>
           <a:chOff x="182880" y="3169920"/>
           <a:chExt cx="7780020" cy="2034540"/>
         </a:xfrm>
@@ -16039,8 +16010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="9832697"/>
-          <a:ext cx="6126480" cy="2854603"/>
+          <a:off x="0" y="10232747"/>
+          <a:ext cx="6263640" cy="2978428"/>
           <a:chOff x="0" y="10066737"/>
           <a:chExt cx="6263640" cy="2982515"/>
         </a:xfrm>
@@ -17146,8 +17117,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="144780" y="13357860"/>
-          <a:ext cx="5212080" cy="2872740"/>
+          <a:off x="144780" y="13910310"/>
+          <a:ext cx="5318760" cy="2996565"/>
           <a:chOff x="144780" y="12908280"/>
           <a:chExt cx="5212080" cy="2872740"/>
         </a:xfrm>
@@ -19526,8 +19497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="185457" y="24307753"/>
-          <a:ext cx="17355309" cy="2925697"/>
+          <a:off x="185457" y="25317403"/>
+          <a:ext cx="17751549" cy="3049522"/>
           <a:chOff x="185457" y="25339175"/>
           <a:chExt cx="17751549" cy="3049522"/>
         </a:xfrm>
@@ -21095,8 +21066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5674995" y="518160"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="5796915" y="537210"/>
+          <a:ext cx="5562599" cy="3172998"/>
           <a:chOff x="129540" y="575310"/>
           <a:chExt cx="5562599" cy="3172998"/>
         </a:xfrm>
@@ -21508,8 +21479,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="137160" y="5425440"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="137160" y="5644515"/>
+          <a:ext cx="5562599" cy="3182523"/>
           <a:chOff x="129540" y="556260"/>
           <a:chExt cx="5440679" cy="3049173"/>
         </a:xfrm>
@@ -21613,8 +21584,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="812075" y="5676900"/>
-          <a:ext cx="3843544" cy="2160833"/>
+          <a:off x="827315" y="5905500"/>
+          <a:ext cx="3919744" cy="2256083"/>
           <a:chOff x="812075" y="4533900"/>
           <a:chExt cx="3843544" cy="2160833"/>
         </a:xfrm>
@@ -22032,8 +22003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5684520" y="5433060"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="5806440" y="5652135"/>
+          <a:ext cx="5562599" cy="3182523"/>
           <a:chOff x="129540" y="556260"/>
           <a:chExt cx="5440679" cy="3049173"/>
         </a:xfrm>
@@ -22137,8 +22108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6527075" y="5745480"/>
-          <a:ext cx="3820684" cy="2099873"/>
+          <a:off x="6664235" y="5983605"/>
+          <a:ext cx="3912124" cy="2185598"/>
           <a:chOff x="6527075" y="4602480"/>
           <a:chExt cx="3820684" cy="2099873"/>
         </a:xfrm>
@@ -22948,8 +22919,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11883935" y="5684520"/>
-          <a:ext cx="3843544" cy="2720341"/>
+          <a:off x="12143015" y="5913120"/>
+          <a:ext cx="3934984" cy="2834641"/>
           <a:chOff x="812075" y="4533900"/>
           <a:chExt cx="3843544" cy="2720341"/>
         </a:xfrm>
@@ -23511,8 +23482,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17560835" y="5745480"/>
-          <a:ext cx="3820684" cy="2659380"/>
+          <a:off x="17957075" y="5983605"/>
+          <a:ext cx="3896884" cy="2764155"/>
           <a:chOff x="6527075" y="4602480"/>
           <a:chExt cx="3820684" cy="2659380"/>
         </a:xfrm>
@@ -24590,8 +24561,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="154305" y="525780"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="154305" y="544830"/>
+          <a:ext cx="5562599" cy="3172998"/>
           <a:chOff x="5783580" y="582930"/>
           <a:chExt cx="5562599" cy="3172998"/>
         </a:xfrm>
@@ -25584,49 +25555,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="52">
+      <c r="B3" s="29">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="50">
+      <c r="B4" s="32">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25638,17 +25609,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="47" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="50">
+      <c r="B5" s="32">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25660,20 +25631,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="49" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="44">
+      <c r="B6" s="34">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25682,18 +25653,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="49" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25702,20 +25673,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="49" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="44">
+      <c r="B8" s="34">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25724,16 +25695,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25742,16 +25713,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25760,20 +25731,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="34">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25782,18 +25753,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25802,16 +25773,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25820,18 +25791,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="49" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25840,135 +25811,134 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25981,25 +25951,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27337,20 +27308,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27760,11 +27731,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27781,79 +27820,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28083,10 +28054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J58"/>
+  <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28100,43 +28071,43 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
@@ -28152,25 +28123,25 @@
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
@@ -28186,308 +28157,308 @@
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="91"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="95" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="65">
+      <c r="B19" s="92">
         <v>44880</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="93"/>
+      <c r="C21" s="103" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="65">
+      <c r="B23" s="92">
         <v>44881</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="B25" s="94"/>
+      <c r="C25" s="108" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="65">
+      <c r="B26" s="92">
         <v>44882</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="114" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="B28" s="94"/>
+      <c r="C28" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="65">
+      <c r="B29" s="92">
         <v>44883</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
+      <c r="B30" s="93"/>
+      <c r="C30" s="117" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="111" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
+      <c r="B32" s="94"/>
+      <c r="C32" s="108" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="120" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+      <c r="B35" s="138">
         <v>44886</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="144"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="140" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
+      <c r="B37" s="139"/>
+      <c r="C37" s="108" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="65">
+      <c r="B38" s="92">
         <v>44887</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="125" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="93"/>
+      <c r="C39" s="104" t="s">
         <v>488</v>
       </c>
       <c r="D39" s="78"/>
@@ -28496,147 +28467,147 @@
       <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
+      <c r="B40" s="94"/>
+      <c r="C40" s="127" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="129"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="145" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="130" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="132"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="146"/>
+      <c r="C42" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="134"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="147"/>
+      <c r="C43" s="135" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="135" t="s">
+      <c r="B46" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="138" t="s">
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="138"/>
-      <c r="J46" s="139"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133" t="s">
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="51"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
+        <v>637</v>
+      </c>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="I49" s="41"/>
+      <c r="J49" s="51"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="144" t="s">
-        <v>637</v>
-      </c>
-      <c r="F50" s="145"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="144" t="s">
-        <v>635</v>
-      </c>
-      <c r="I50" s="145"/>
-      <c r="J50" s="147"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28660,50 +28631,26 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28720,21 +28667,35 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29672,98 +29633,98 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="143" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="143" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="L19" s="134"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="P19" s="134"/>
+      <c r="P19" s="68"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="28"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="31"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29812,6 +29773,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29828,17 +29800,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -8976,7 +8976,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8985,19 +9009,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9006,112 +9036,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9130,18 +9265,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9174,173 +9297,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9360,7 +9360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9369,7 +9369,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25555,49 +25555,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25609,17 +25609,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25631,20 +25631,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25653,18 +25653,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25673,20 +25673,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25695,16 +25695,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25713,16 +25713,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25731,20 +25731,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25753,18 +25753,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25773,16 +25773,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25791,18 +25791,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25811,134 +25811,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25951,26 +25952,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27308,20 +27308,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27731,79 +27731,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27820,11 +27752,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28057,7 +28057,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28071,43 +28071,43 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
@@ -28123,25 +28123,25 @@
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="75" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
@@ -28157,308 +28157,308 @@
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="87"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="91"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="92">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="93"/>
-      <c r="C20" s="101" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="93"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="94"/>
-      <c r="C22" s="108" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="93"/>
-      <c r="C24" s="111" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="94"/>
-      <c r="C25" s="108" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="92">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="93"/>
-      <c r="C27" s="114" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="94"/>
-      <c r="C28" s="103" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="92">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="93"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="93"/>
-      <c r="C31" s="111" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="94"/>
-      <c r="C32" s="108" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="138">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="140" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="142"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="139"/>
-      <c r="C37" s="108" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="92">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="126"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="93"/>
-      <c r="C39" s="104" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
       <c r="D39" s="78"/>
@@ -28467,147 +28467,147 @@
       <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="94"/>
-      <c r="C40" s="127" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="129"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="146"/>
-      <c r="C42" s="133" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="134"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="147"/>
-      <c r="C43" s="135" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="137"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="140" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="135" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="137" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="138" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="139"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="143" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67" t="s">
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67" t="s">
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="144" t="s">
         <v>636</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="145"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="144" t="s">
         <v>634</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="147"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28636,21 +28636,35 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28667,35 +28681,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29633,98 +29633,98 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="143" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="133" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="134"/>
+      <c r="E19" s="143" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="133"/>
+      <c r="G19" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="134"/>
+      <c r="I19" s="143" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="133"/>
+      <c r="K19" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="133"/>
+      <c r="O19" s="133" t="s">
         <v>512</v>
       </c>
-      <c r="P19" s="68"/>
+      <c r="P19" s="134"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29773,17 +29773,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29800,6 +29789,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="638">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -7924,25 +7924,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・コンボが切れた時の、コンボテキストの揺れや色の調整</t>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ユ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8976,10 +8957,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8988,265 +9038,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9265,6 +9111,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9297,50 +9155,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9360,7 +9341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9369,7 +9350,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25555,49 +25536,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="52">
+      <c r="B3" s="29">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="50">
+      <c r="B4" s="32">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25609,17 +25590,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="47" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="50">
+      <c r="B5" s="32">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25631,20 +25612,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="49" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="44">
+      <c r="B6" s="34">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25653,18 +25634,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="49" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25673,20 +25654,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="49" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="44">
+      <c r="B8" s="34">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25695,16 +25676,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25713,16 +25694,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25731,20 +25712,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="34">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25753,18 +25734,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25773,16 +25754,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25791,18 +25772,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="49" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25811,135 +25792,134 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25952,25 +25932,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27308,20 +27289,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27731,11 +27712,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27752,79 +27801,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28056,8 +28037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28071,43 +28052,43 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
@@ -28123,25 +28104,25 @@
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
@@ -28157,308 +28138,308 @@
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="91"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="95" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="65">
+      <c r="B19" s="92">
         <v>44880</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="93"/>
+      <c r="C21" s="103" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="65">
+      <c r="B23" s="92">
         <v>44881</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="B25" s="94"/>
+      <c r="C25" s="108" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="65">
+      <c r="B26" s="92">
         <v>44882</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="114" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="B28" s="94"/>
+      <c r="C28" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="65">
+      <c r="B29" s="92">
         <v>44883</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
+      <c r="B30" s="93"/>
+      <c r="C30" s="117" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="111" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
+      <c r="B32" s="94"/>
+      <c r="C32" s="108" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="120" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+      <c r="B35" s="138">
         <v>44886</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="144"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="140" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
+      <c r="B37" s="139"/>
+      <c r="C37" s="108" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="65">
+      <c r="B38" s="92">
         <v>44887</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="125" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="93"/>
+      <c r="C39" s="104" t="s">
         <v>488</v>
       </c>
       <c r="D39" s="78"/>
@@ -28467,147 +28448,147 @@
       <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
+      <c r="B40" s="94"/>
+      <c r="C40" s="127" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="129"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="145" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="130" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="132"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="146"/>
+      <c r="C42" s="133" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="134"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="147"/>
+      <c r="C43" s="135" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="135" t="s">
+      <c r="B46" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="138" t="s">
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="138"/>
-      <c r="J46" s="139"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133" t="s">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="46"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="51"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
+        <v>636</v>
+      </c>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="I49" s="41"/>
+      <c r="J49" s="51"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="144" t="s">
-        <v>636</v>
-      </c>
-      <c r="F50" s="145"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="144" t="s">
-        <v>634</v>
-      </c>
-      <c r="I50" s="145"/>
-      <c r="J50" s="147"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28616,55 +28597,36 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28681,21 +28643,35 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29633,98 +29609,98 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="143" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="143" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="L19" s="134"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="P19" s="134"/>
+      <c r="P19" s="68"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="28"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="31"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29773,6 +29749,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29789,17 +29776,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="641">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -7973,15 +7973,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・フィーバー中の背景調整</t>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チョウセイ</t>
+    <t>・ランダムで出現する敵</t>
+    <rPh sb="6" eb="8">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始前のメッセージ</t>
+    <rPh sb="0" eb="3">
+      <t>カイシマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・木を倒してスラッシュゴッドになる</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・木を倒す為には上に行かないといけない</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8957,7 +8990,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8966,19 +9023,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8987,112 +9050,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9111,18 +9279,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9155,173 +9311,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9330,6 +9360,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9341,7 +9374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9350,7 +9383,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25536,49 +25569,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25590,17 +25623,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25612,20 +25645,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25634,18 +25667,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25654,20 +25687,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25676,16 +25709,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25694,16 +25727,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25712,20 +25745,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25734,18 +25767,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25754,16 +25787,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25772,18 +25805,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25792,134 +25825,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25932,26 +25966,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27289,20 +27322,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27712,79 +27745,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27801,11 +27766,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28035,10 +28068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J56"/>
+  <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:J49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28052,43 +28085,43 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
@@ -28104,25 +28137,25 @@
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="75" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
@@ -28138,308 +28171,308 @@
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="87"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="91"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="92">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="93"/>
-      <c r="C20" s="101" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="93"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="94"/>
-      <c r="C22" s="108" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="93"/>
-      <c r="C24" s="111" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="113"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="94"/>
-      <c r="C25" s="108" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="92">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="93"/>
-      <c r="C27" s="114" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="113"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="94"/>
-      <c r="C28" s="103" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="92">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="93"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="93"/>
-      <c r="C31" s="111" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="94"/>
-      <c r="C32" s="108" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="138">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="140" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="142"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="139"/>
-      <c r="C37" s="108" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="92">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="126"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="93"/>
-      <c r="C39" s="104" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
       <c r="D39" s="78"/>
@@ -28448,147 +28481,147 @@
       <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="94"/>
-      <c r="C40" s="127" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="129"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="146"/>
-      <c r="C42" s="133" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="134"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="147"/>
-      <c r="C43" s="135" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="137"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="138" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="141" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="30" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30" t="s">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="46"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="143" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="144"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="143" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="146"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28605,28 +28638,57 @@
         <v>632</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28643,35 +28705,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29577,130 +29625,130 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149" t="s">
+      <c r="B18" s="148"/>
+      <c r="C18" s="148" t="s">
         <v>510</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="148" t="s">
+      <c r="D18" s="149"/>
+      <c r="E18" s="147" t="s">
         <v>517</v>
       </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149" t="s">
+      <c r="F18" s="148"/>
+      <c r="G18" s="148" t="s">
         <v>518</v>
       </c>
-      <c r="H18" s="150"/>
-      <c r="I18" s="148" t="s">
+      <c r="H18" s="149"/>
+      <c r="I18" s="147" t="s">
         <v>526</v>
       </c>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="150"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
       <c r="M18" s="151" t="s">
         <v>529</v>
       </c>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149" t="s">
+      <c r="N18" s="148"/>
+      <c r="O18" s="148" t="s">
         <v>530</v>
       </c>
-      <c r="P18" s="150"/>
+      <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="141" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="142" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="142"/>
+      <c r="G19" s="142" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="150"/>
+      <c r="I19" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="142"/>
+      <c r="K19" s="142" t="s">
         <v>513</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142" t="s">
         <v>512</v>
       </c>
-      <c r="P19" s="68"/>
+      <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29749,17 +29797,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29776,6 +29813,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="644">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -8015,6 +8015,27 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お願いするイラスト</t>
+    <rPh sb="1" eb="2">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・時計</t>
+    <rPh sb="1" eb="3">
+      <t>トケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・矢印</t>
+    <rPh sb="1" eb="3">
+      <t>ヤジルシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8990,10 +9011,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9002,265 +9092,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9279,6 +9162,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9311,47 +9206,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9374,7 +9395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9383,7 +9404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25569,49 +25590,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="52">
+      <c r="B3" s="29">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="50">
+      <c r="B4" s="32">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25623,17 +25644,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="47" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="50">
+      <c r="B5" s="32">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25645,20 +25666,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="49" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="44">
+      <c r="B6" s="34">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25667,18 +25688,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="49" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25687,20 +25708,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="49" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="44">
+      <c r="B8" s="34">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25709,16 +25730,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25727,16 +25748,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25745,20 +25766,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="34">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25767,18 +25788,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25787,16 +25808,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25805,18 +25826,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="49" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25825,135 +25846,134 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25966,25 +25986,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27322,20 +27343,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27745,11 +27766,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27766,79 +27855,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28070,8 +28091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28085,543 +28106,543 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="94" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="65">
+      <c r="B19" s="91">
         <v>44880</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="93"/>
+      <c r="C22" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="65">
+      <c r="B23" s="91">
         <v>44881</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="110" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="65">
+      <c r="B26" s="91">
         <v>44882</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="65">
+      <c r="B29" s="91">
         <v>44883</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="116" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
+      <c r="B31" s="92"/>
+      <c r="C31" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
+      <c r="B32" s="93"/>
+      <c r="C32" s="107" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="119" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+      <c r="B35" s="137">
         <v>44886</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="139" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="141"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="80"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="65">
+      <c r="B38" s="91">
         <v>44887</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="124" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="125"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="92"/>
+      <c r="C39" s="103" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="126" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="144" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="129" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="145"/>
+      <c r="C42" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="133"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="146"/>
+      <c r="C43" s="134" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="136"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136" t="s">
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="141" t="s">
+      <c r="B47" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="38" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="46"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="51"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="51"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="143" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="144"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="143" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="144"/>
-      <c r="J50" s="146"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28632,16 +28653,25 @@
       <c r="B53" t="s">
         <v>631</v>
       </c>
+      <c r="G53" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>632</v>
       </c>
+      <c r="G54" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>637</v>
       </c>
+      <c r="G55" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
@@ -28660,35 +28690,21 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28705,21 +28721,35 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29657,35 +29687,35 @@
       <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
@@ -29694,61 +29724,61 @@
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="28"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="31"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29797,6 +29827,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29813,17 +29854,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="更新内容" sheetId="11" r:id="rId1"/>
@@ -9011,7 +9011,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9020,19 +9044,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9041,109 +9071,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9162,18 +9300,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9206,173 +9332,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9395,7 +9395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9404,7 +9404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25590,49 +25590,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25644,17 +25644,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25666,20 +25666,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25688,18 +25688,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25708,20 +25708,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25730,16 +25730,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25748,16 +25748,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25766,20 +25766,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25788,18 +25788,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25808,16 +25808,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25826,18 +25826,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25846,134 +25846,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25986,26 +25987,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27343,20 +27343,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27766,79 +27766,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27855,11 +27787,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28091,7 +28091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -28106,543 +28106,543 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="86"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="87"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="87"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="91">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="92"/>
-      <c r="C20" s="100" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="92"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="93"/>
-      <c r="C22" s="107" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="91">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="92"/>
-      <c r="C24" s="110" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="93"/>
-      <c r="C25" s="107" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="91">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="92"/>
-      <c r="C27" s="113" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="93"/>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="91">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="92"/>
-      <c r="C30" s="116" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="92"/>
-      <c r="C31" s="110" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="93"/>
-      <c r="C32" s="107" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="121"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="123"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="137">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="139" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="141"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="138"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="91">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="125"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="92"/>
-      <c r="C39" s="103" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="93"/>
-      <c r="C40" s="126" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="128"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="145"/>
-      <c r="C42" s="132" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="133"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="146"/>
-      <c r="C43" s="134" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="136"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="138" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="141" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="30" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30" t="s">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="46"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="143" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="144"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="143" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="146"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28690,21 +28690,35 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28721,35 +28735,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29597,7 +29597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -29687,35 +29687,35 @@
       <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="141" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="142" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="142"/>
+      <c r="G19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="142"/>
+      <c r="K19" s="142" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
@@ -29724,61 +29724,61 @@
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29827,17 +29827,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29854,6 +29843,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -9011,10 +9011,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9023,265 +9092,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9300,6 +9162,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9332,47 +9206,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9395,7 +9395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9404,7 +9404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25590,49 +25590,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="52">
+      <c r="B3" s="29">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="50">
+      <c r="B4" s="32">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25644,17 +25644,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="47" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="50">
+      <c r="B5" s="32">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25666,20 +25666,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="49" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="44">
+      <c r="B6" s="34">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25688,18 +25688,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="49" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25708,20 +25708,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="49" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="44">
+      <c r="B8" s="34">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25730,16 +25730,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25748,16 +25748,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25766,20 +25766,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="34">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25788,18 +25788,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25808,16 +25808,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25826,18 +25826,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="49" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25846,135 +25846,134 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25987,25 +25986,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27343,20 +27343,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27766,11 +27766,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27787,79 +27855,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28106,543 +28106,543 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="94" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="65">
+      <c r="B19" s="91">
         <v>44880</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="93"/>
+      <c r="C22" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="65">
+      <c r="B23" s="91">
         <v>44881</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="110" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="65">
+      <c r="B26" s="91">
         <v>44882</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="65">
+      <c r="B29" s="91">
         <v>44883</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="116" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
+      <c r="B31" s="92"/>
+      <c r="C31" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
+      <c r="B32" s="93"/>
+      <c r="C32" s="107" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="119" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+      <c r="B35" s="137">
         <v>44886</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="139" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="141"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="80"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="65">
+      <c r="B38" s="91">
         <v>44887</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="124" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="125"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="92"/>
+      <c r="C39" s="103" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="126" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="144" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="129" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
+      <c r="B42" s="145"/>
+      <c r="C42" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="133"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="146"/>
+      <c r="C43" s="134" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="136"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136" t="s">
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="141" t="s">
+      <c r="B47" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="38" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="46"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="51"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="51"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="143" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="144"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="143" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="144"/>
-      <c r="J50" s="146"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28690,35 +28690,21 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28735,21 +28721,35 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29687,35 +29687,35 @@
       <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
@@ -29724,61 +29724,61 @@
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="28"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="31"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29827,6 +29827,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29843,17 +29854,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="更新内容" sheetId="11" r:id="rId1"/>
@@ -9011,7 +9011,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9020,19 +9044,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9041,109 +9071,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9162,18 +9300,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9206,173 +9332,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9395,7 +9395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9404,7 +9404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25582,57 +25582,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25644,17 +25642,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25666,20 +25664,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25688,18 +25686,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25708,20 +25706,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25730,16 +25728,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25748,16 +25746,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25766,20 +25764,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25788,18 +25786,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25808,16 +25806,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25826,18 +25824,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25846,134 +25844,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25986,26 +25985,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27343,20 +27341,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27766,79 +27764,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27855,11 +27785,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28091,9 +28089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -28106,543 +28102,543 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="86"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="87"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="87"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="91">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="92"/>
-      <c r="C20" s="100" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="92"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="93"/>
-      <c r="C22" s="107" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="91">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="92"/>
-      <c r="C24" s="110" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="93"/>
-      <c r="C25" s="107" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="91">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="92"/>
-      <c r="C27" s="113" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="93"/>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="91">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="92"/>
-      <c r="C30" s="116" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="92"/>
-      <c r="C31" s="110" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="93"/>
-      <c r="C32" s="107" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="121"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="123"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="137">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="139" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="141"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="138"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="91">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="125"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="92"/>
-      <c r="C39" s="103" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="93"/>
-      <c r="C40" s="126" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="128"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="145"/>
-      <c r="C42" s="132" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="133"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="146"/>
-      <c r="C43" s="134" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="136"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="138" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="141" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="30" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30" t="s">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="46"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="143" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="144"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="143" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="146"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28690,21 +28686,35 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28721,35 +28731,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29597,7 +29593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -29687,35 +29683,35 @@
       <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="141" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="142" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="142"/>
+      <c r="G19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="142"/>
+      <c r="K19" s="142" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
@@ -29724,61 +29720,61 @@
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29827,17 +29823,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29854,6 +29839,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Documents\HukuokaGameContest\2DHukuokaGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\3年\GameContest2023\2DHukuokaGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB8E08-CF43-4854-90DD-9787C8535515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新内容" sheetId="11" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="645">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -8039,11 +8040,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・ゲーム終了時星と敵を消す</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9011,10 +9031,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9023,265 +9112,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9300,6 +9182,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9332,47 +9226,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9395,7 +9415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9404,7 +9424,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10219,8 +10239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3036570" y="8997315"/>
-          <a:ext cx="209550" cy="219075"/>
+          <a:off x="2975610" y="8637270"/>
+          <a:ext cx="209550" cy="209550"/>
           <a:chOff x="8012430" y="8823960"/>
           <a:chExt cx="266700" cy="266700"/>
         </a:xfrm>
@@ -10488,7 +10508,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7258050" y="9098281"/>
+          <a:off x="7105650" y="8728711"/>
           <a:ext cx="209550" cy="209550"/>
           <a:chOff x="8012430" y="8823960"/>
           <a:chExt cx="266700" cy="266700"/>
@@ -15557,8 +15577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="2072640"/>
-          <a:ext cx="7947660" cy="2120265"/>
+          <a:off x="152400" y="1996440"/>
+          <a:ext cx="7780020" cy="2034540"/>
           <a:chOff x="182880" y="3169920"/>
           <a:chExt cx="7780020" cy="2034540"/>
         </a:xfrm>
@@ -16045,8 +16065,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="10232747"/>
-          <a:ext cx="6263640" cy="2978428"/>
+          <a:off x="0" y="9832697"/>
+          <a:ext cx="6126480" cy="2854603"/>
           <a:chOff x="0" y="10066737"/>
           <a:chExt cx="6263640" cy="2982515"/>
         </a:xfrm>
@@ -17152,8 +17172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="144780" y="13910310"/>
-          <a:ext cx="5318760" cy="2996565"/>
+          <a:off x="144780" y="13357860"/>
+          <a:ext cx="5212080" cy="2872740"/>
           <a:chOff x="144780" y="12908280"/>
           <a:chExt cx="5212080" cy="2872740"/>
         </a:xfrm>
@@ -19532,8 +19552,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="185457" y="25317403"/>
-          <a:ext cx="17751549" cy="3049522"/>
+          <a:off x="185457" y="24307753"/>
+          <a:ext cx="17355309" cy="2925697"/>
           <a:chOff x="185457" y="25339175"/>
           <a:chExt cx="17751549" cy="3049522"/>
         </a:xfrm>
@@ -21101,8 +21121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5796915" y="537210"/>
-          <a:ext cx="5562599" cy="3172998"/>
+          <a:off x="5674995" y="518160"/>
+          <a:ext cx="5440679" cy="3049173"/>
           <a:chOff x="129540" y="575310"/>
           <a:chExt cx="5562599" cy="3172998"/>
         </a:xfrm>
@@ -21514,8 +21534,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="137160" y="5644515"/>
-          <a:ext cx="5562599" cy="3182523"/>
+          <a:off x="137160" y="5425440"/>
+          <a:ext cx="5440679" cy="3049173"/>
           <a:chOff x="129540" y="556260"/>
           <a:chExt cx="5440679" cy="3049173"/>
         </a:xfrm>
@@ -21619,8 +21639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="827315" y="5905500"/>
-          <a:ext cx="3919744" cy="2256083"/>
+          <a:off x="812075" y="5676900"/>
+          <a:ext cx="3843544" cy="2160833"/>
           <a:chOff x="812075" y="4533900"/>
           <a:chExt cx="3843544" cy="2160833"/>
         </a:xfrm>
@@ -22038,8 +22058,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5806440" y="5652135"/>
-          <a:ext cx="5562599" cy="3182523"/>
+          <a:off x="5684520" y="5433060"/>
+          <a:ext cx="5440679" cy="3049173"/>
           <a:chOff x="129540" y="556260"/>
           <a:chExt cx="5440679" cy="3049173"/>
         </a:xfrm>
@@ -22143,8 +22163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6664235" y="5983605"/>
-          <a:ext cx="3912124" cy="2185598"/>
+          <a:off x="6527075" y="5745480"/>
+          <a:ext cx="3820684" cy="2099873"/>
           <a:chOff x="6527075" y="4602480"/>
           <a:chExt cx="3820684" cy="2099873"/>
         </a:xfrm>
@@ -22954,8 +22974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12143015" y="5913120"/>
-          <a:ext cx="3934984" cy="2834641"/>
+          <a:off x="11883935" y="5684520"/>
+          <a:ext cx="3843544" cy="2720341"/>
           <a:chOff x="812075" y="4533900"/>
           <a:chExt cx="3843544" cy="2720341"/>
         </a:xfrm>
@@ -23517,8 +23537,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17957075" y="5983605"/>
-          <a:ext cx="3896884" cy="2764155"/>
+          <a:off x="17560835" y="5745480"/>
+          <a:ext cx="3820684" cy="2659380"/>
           <a:chOff x="6527075" y="4602480"/>
           <a:chExt cx="3820684" cy="2659380"/>
         </a:xfrm>
@@ -24596,8 +24616,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="154305" y="544830"/>
-          <a:ext cx="5562599" cy="3172998"/>
+          <a:off x="154305" y="525780"/>
+          <a:ext cx="5440679" cy="3049173"/>
           <a:chOff x="5783580" y="582930"/>
           <a:chExt cx="5562599" cy="3172998"/>
         </a:xfrm>
@@ -25579,58 +25599,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="52">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="2:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="29">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="50">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="32">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25642,17 +25662,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="47" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="50">
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="32">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25664,20 +25684,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="49" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="44">
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="34">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25686,18 +25706,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="49" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25706,20 +25726,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="49" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="44">
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="34">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25728,16 +25748,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25746,16 +25766,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25764,20 +25784,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="34">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25786,18 +25806,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25806,16 +25826,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25824,18 +25844,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="49" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25844,135 +25864,134 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="41">
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="40">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="51"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="51"/>
+    </row>
+    <row r="20" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -25985,25 +26004,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26011,175 +26031,175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>550</v>
       </c>
@@ -26192,227 +26212,227 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>442</v>
       </c>
@@ -26426,140 +26446,140 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>412</v>
       </c>
@@ -26571,192 +26591,192 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A158"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>543</v>
       </c>
@@ -26769,84 +26789,84 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>596</v>
       </c>
@@ -26859,79 +26879,79 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>462</v>
       </c>
@@ -26943,14 +26963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:Y58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>347</v>
       </c>
@@ -26961,7 +26981,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -26973,7 +26993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -26984,7 +27004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -26995,7 +27015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="S6" t="s">
         <v>122</v>
       </c>
@@ -27003,7 +27023,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>348</v>
       </c>
@@ -27017,7 +27037,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -27028,7 +27048,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -27042,7 +27062,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="S10" t="s">
         <v>127</v>
       </c>
@@ -27050,7 +27070,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>355</v>
       </c>
@@ -27064,7 +27084,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>354</v>
       </c>
@@ -27072,7 +27092,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -27083,12 +27103,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>357</v>
       </c>
@@ -27099,12 +27119,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="J16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J17" t="s">
         <v>131</v>
       </c>
@@ -27112,7 +27132,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
         <v>132</v>
       </c>
@@ -27120,12 +27140,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="10:25" x14ac:dyDescent="0.45">
       <c r="Y19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J20" s="9" t="s">
         <v>39</v>
       </c>
@@ -27133,12 +27153,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J22" t="s">
         <v>134</v>
       </c>
@@ -27146,7 +27166,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J23" t="s">
         <v>155</v>
       </c>
@@ -27154,17 +27174,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="10:25" x14ac:dyDescent="0.45">
       <c r="Y24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J25" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J26" t="s">
         <v>136</v>
       </c>
@@ -27172,7 +27192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J27" t="s">
         <v>137</v>
       </c>
@@ -27180,7 +27200,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J28" t="s">
         <v>138</v>
       </c>
@@ -27188,18 +27208,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="10:25" x14ac:dyDescent="0.45">
       <c r="Y29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J30" s="8" t="s">
         <v>139</v>
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J31" t="s">
         <v>140</v>
       </c>
@@ -27207,7 +27227,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J32" t="s">
         <v>141</v>
       </c>
@@ -27215,7 +27235,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J33" t="s">
         <v>142</v>
       </c>
@@ -27223,98 +27243,98 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J35" s="6" t="s">
         <v>95</v>
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="36" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="37" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="40" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J40" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="41" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="42" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J42" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="44" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J44" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="45" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="46" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J46" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="10:25" x14ac:dyDescent="0.4">
+    <row r="48" spans="10:25" x14ac:dyDescent="0.45">
       <c r="J48" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J49" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J52" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J53" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J54" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J56" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J58" t="s">
         <v>181</v>
       </c>
@@ -27327,7 +27347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27335,28 +27355,28 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I1" s="157"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="153" t="s">
         <v>4</v>
       </c>
@@ -27374,7 +27394,7 @@
       </c>
       <c r="I2" s="153"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="153" t="s">
         <v>5</v>
       </c>
@@ -27392,7 +27412,7 @@
       </c>
       <c r="I3" s="153"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="153" t="s">
         <v>2</v>
       </c>
@@ -27410,7 +27430,7 @@
       </c>
       <c r="I4" s="153"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="153" t="s">
         <v>3</v>
       </c>
@@ -27428,7 +27448,7 @@
       </c>
       <c r="I5" s="153"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="153" t="s">
         <v>6</v>
       </c>
@@ -27446,7 +27466,7 @@
       </c>
       <c r="I6" s="153"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="153" t="s">
         <v>7</v>
       </c>
@@ -27464,7 +27484,7 @@
       </c>
       <c r="I7" s="153"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="153" t="s">
         <v>8</v>
       </c>
@@ -27482,7 +27502,7 @@
       </c>
       <c r="I8" s="153"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="153" t="s">
         <v>20</v>
       </c>
@@ -27500,7 +27520,7 @@
       </c>
       <c r="I9" s="153"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="153" t="s">
         <v>21</v>
       </c>
@@ -27518,7 +27538,7 @@
       </c>
       <c r="I10" s="153"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="153" t="s">
         <v>27</v>
       </c>
@@ -27536,7 +27556,7 @@
       </c>
       <c r="I11" s="153"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="153" t="s">
         <v>31</v>
       </c>
@@ -27554,7 +27574,7 @@
       </c>
       <c r="I12" s="153"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="153" t="s">
         <v>32</v>
       </c>
@@ -27572,7 +27592,7 @@
       </c>
       <c r="I13" s="153"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="153" t="s">
         <v>33</v>
       </c>
@@ -27590,7 +27610,7 @@
       </c>
       <c r="I14" s="153"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="153" t="s">
         <v>34</v>
       </c>
@@ -27608,7 +27628,7 @@
       </c>
       <c r="I15" s="153"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="153" t="s">
         <v>35</v>
       </c>
@@ -27626,7 +27646,7 @@
       </c>
       <c r="I16" s="153"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="153" t="s">
         <v>45</v>
       </c>
@@ -27644,7 +27664,7 @@
       </c>
       <c r="I17" s="153"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="153" t="s">
         <v>58</v>
       </c>
@@ -27662,7 +27682,7 @@
       </c>
       <c r="I18" s="153"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="153" t="s">
         <v>72</v>
       </c>
@@ -27678,7 +27698,7 @@
       <c r="H19" s="153"/>
       <c r="I19" s="153"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="153" t="s">
         <v>75</v>
       </c>
@@ -27694,7 +27714,7 @@
       <c r="H20" s="153"/>
       <c r="I20" s="153"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="153" t="s">
         <v>78</v>
       </c>
@@ -27708,7 +27728,7 @@
       </c>
       <c r="F21" s="153"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="153" t="s">
         <v>94</v>
       </c>
@@ -27722,7 +27742,7 @@
       </c>
       <c r="F22" s="153"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="153" t="s">
         <v>146</v>
       </c>
@@ -27736,7 +27756,7 @@
       </c>
       <c r="F23" s="156"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="153" t="s">
         <v>148</v>
       </c>
@@ -27750,7 +27770,7 @@
       </c>
       <c r="F24" s="153"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="153" t="s">
         <v>171</v>
       </c>
@@ -27764,11 +27784,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27785,79 +27873,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27865,14 +27885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B3:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -27889,7 +27909,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>233</v>
       </c>
@@ -27906,7 +27926,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>234</v>
       </c>
@@ -27923,7 +27943,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>235</v>
       </c>
@@ -27940,7 +27960,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>231</v>
       </c>
@@ -27951,7 +27971,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>232</v>
       </c>
@@ -27962,12 +27982,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="H9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>237</v>
       </c>
@@ -27981,7 +28001,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>239</v>
       </c>
@@ -27995,17 +28015,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>244</v>
       </c>
@@ -28022,57 +28042,57 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="O24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F42" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F43" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F45" t="s">
         <v>259</v>
       </c>
@@ -28086,566 +28106,568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:J61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:J49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-    </row>
-    <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="2:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
-    </row>
-    <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-    </row>
-    <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-    </row>
-    <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-    </row>
-    <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F10" s="71"/>
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
-    </row>
-    <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="87"/>
+    </row>
+    <row r="12" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-    </row>
-    <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+    </row>
+    <row r="13" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="71"/>
+      <c r="G13" s="86"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
-    </row>
-    <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="87"/>
+    </row>
+    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
-    </row>
-    <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="98" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="90"/>
+    </row>
+    <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="94" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="65">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+    </row>
+    <row r="19" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="91">
         <v>44880</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="92"/>
+      <c r="C20" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="92"/>
+      <c r="C21" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
-    </row>
-    <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+    </row>
+    <row r="22" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="93"/>
+      <c r="C22" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="65">
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+    </row>
+    <row r="23" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="91">
         <v>44881</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="92"/>
+      <c r="C24" s="110" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+    </row>
+    <row r="25" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="93"/>
+      <c r="C25" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="65">
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+    </row>
+    <row r="26" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="91">
         <v>44882</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="92"/>
+      <c r="C27" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
+    </row>
+    <row r="28" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="93"/>
+      <c r="C28" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-    </row>
-    <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="65">
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
+    </row>
+    <row r="29" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="91">
         <v>44883</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="92"/>
+      <c r="C30" s="116" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="92"/>
+      <c r="C31" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-    </row>
-    <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
+    </row>
+    <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="93"/>
+      <c r="C32" s="107" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-    </row>
-    <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+    </row>
+    <row r="33" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="119" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-    </row>
-    <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
+    </row>
+    <row r="34" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
-    </row>
-    <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="137">
         <v>44886</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" s="40"/>
+      <c r="C36" s="139" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="141"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="138"/>
+      <c r="C37" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-    </row>
-    <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="65">
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="80"/>
+    </row>
+    <row r="38" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="91">
         <v>44887</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="124" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="125"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" s="92"/>
+      <c r="C39" s="103" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+    </row>
+    <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="93"/>
+      <c r="C40" s="126" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="80" t="s">
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
+    </row>
+    <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="144" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="129" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B42" s="145"/>
+      <c r="C42" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="133"/>
+    </row>
+    <row r="43" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="146"/>
+      <c r="C43" s="134" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-    </row>
-    <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="136"/>
+    </row>
+    <row r="44" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="138" t="s">
+    <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
-    </row>
-    <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="133" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+    </row>
+    <row r="46" spans="2:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136" t="s">
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
-    </row>
-    <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="141" t="s">
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
+    </row>
+    <row r="47" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="38" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I47" s="30"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I48" s="41"/>
+      <c r="J48" s="51"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I49" s="41"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="143" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="144"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="143" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="144"/>
-      <c r="J50" s="146"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>631</v>
       </c>
@@ -28653,7 +28675,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>632</v>
       </c>
@@ -28661,7 +28683,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>637</v>
       </c>
@@ -28669,52 +28691,43 @@
         <v>643</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>640</v>
       </c>
     </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28731,21 +28744,35 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28755,204 +28782,204 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -28965,204 +28992,204 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>556</v>
       </c>
@@ -29175,79 +29202,79 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I18" s="17"/>
       <c r="M18" s="17"/>
     </row>
@@ -29259,34 +29286,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -29298,7 +29325,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -29310,7 +29337,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -29322,7 +29349,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>427</v>
       </c>
@@ -29334,7 +29361,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -29344,7 +29371,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -29356,7 +29383,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -29368,53 +29395,53 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>429</v>
       </c>
@@ -29426,159 +29453,159 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>330</v>
       </c>
@@ -29590,67 +29617,67 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="147" t="s">
         <v>75</v>
       </c>
@@ -29682,147 +29709,158 @@
       </c>
       <c r="P18" s="149"/>
     </row>
-    <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="141" t="s">
+    <row r="19" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P20" s="51"/>
+    </row>
+    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P21" s="53"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>579</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29839,17 +29877,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29859,96 +29886,96 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>509</v>
       </c>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\3年\GameContest2023\2DHukuokaGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB8E08-CF43-4854-90DD-9787C8535515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC17304-08F0-48B6-B628-1B00C1EE4155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9031,7 +9031,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9040,19 +9064,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9061,109 +9091,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9182,18 +9320,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9226,173 +9352,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9415,7 +9415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9424,7 +9424,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25608,49 +25608,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25662,17 +25662,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25684,20 +25684,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25706,18 +25706,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25726,20 +25726,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25748,16 +25748,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25766,16 +25766,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25784,20 +25784,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25806,18 +25806,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25826,16 +25826,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25844,18 +25844,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25864,134 +25864,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -26004,26 +26005,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27361,20 +27361,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="153" t="s">
@@ -27784,79 +27784,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27873,11 +27805,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28109,7 +28109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H49" sqref="H49:J49"/>
     </sheetView>
   </sheetViews>
@@ -28124,543 +28124,543 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="86"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="87"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="87"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="91">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="92"/>
-      <c r="C20" s="100" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="92"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="93"/>
-      <c r="C22" s="107" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="91">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="92"/>
-      <c r="C24" s="110" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="93"/>
-      <c r="C25" s="107" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="91">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="92"/>
-      <c r="C27" s="113" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="93"/>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="91">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="92"/>
-      <c r="C30" s="116" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="92"/>
-      <c r="C31" s="110" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="93"/>
-      <c r="C32" s="107" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="121"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="123"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="137">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="40"/>
-      <c r="C36" s="139" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="141"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="138"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="91">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="125"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="92"/>
-      <c r="C39" s="103" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="93"/>
-      <c r="C40" s="126" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="128"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="145"/>
-      <c r="C42" s="132" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="133"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="146"/>
-      <c r="C43" s="134" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="136"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="138" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="2:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
     </row>
     <row r="47" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="141" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="30" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30" t="s">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="46"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="33" t="s">
         <v>627</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="143" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="144"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="143" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="146"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
@@ -28713,21 +28713,35 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28744,35 +28758,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29710,35 +29710,35 @@
       <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="141" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="142" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="142"/>
+      <c r="G19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="142"/>
+      <c r="K19" s="142" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
@@ -29747,61 +29747,61 @@
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
@@ -29850,17 +29850,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29877,6 +29866,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\3年\GameContest2023\2DHukuokaGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Documents\HukuokaGameContest\2DHukuokaGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC17304-08F0-48B6-B628-1B00C1EE4155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新内容" sheetId="11" r:id="rId1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="644">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -8027,20 +8026,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・時計</t>
-    <rPh sb="1" eb="3">
-      <t>トケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・矢印</t>
-    <rPh sb="1" eb="3">
-      <t>ヤジルシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ゲーム終了時星と敵を消す</t>
     <rPh sb="4" eb="6">
       <t>シュウリョウ</t>
@@ -8057,13 +8042,17 @@
     <rPh sb="11" eb="12">
       <t>ケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボードのイラスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9031,10 +9020,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9043,265 +9101,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9320,6 +9171,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9352,47 +9215,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9415,7 +9404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9424,7 +9413,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25599,58 +25588,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="2:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="29">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="50">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="32">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25662,17 +25651,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="47" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="50">
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="32">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25684,20 +25673,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="49" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="44">
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="34">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25706,18 +25695,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="49" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25726,20 +25715,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="49" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="44">
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="34">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25748,16 +25737,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25766,16 +25755,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25784,20 +25773,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="44">
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="34">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25806,18 +25795,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25826,16 +25815,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25844,18 +25833,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="49" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25864,135 +25853,134 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="41">
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="40">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="51"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="51"/>
+    </row>
+    <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -26005,25 +25993,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26031,175 +26020,175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>550</v>
       </c>
@@ -26212,227 +26201,227 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>442</v>
       </c>
@@ -26446,140 +26435,140 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>412</v>
       </c>
@@ -26591,192 +26580,192 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A158"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>543</v>
       </c>
@@ -26789,84 +26778,84 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>596</v>
       </c>
@@ -26879,79 +26868,79 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>462</v>
       </c>
@@ -26963,14 +26952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>347</v>
       </c>
@@ -26981,7 +26970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -26993,7 +26982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -27004,7 +26993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -27015,7 +27004,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="S6" t="s">
         <v>122</v>
       </c>
@@ -27023,7 +27012,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>348</v>
       </c>
@@ -27037,7 +27026,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -27048,7 +27037,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -27062,7 +27051,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="S10" t="s">
         <v>127</v>
       </c>
@@ -27070,7 +27059,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>355</v>
       </c>
@@ -27084,7 +27073,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>354</v>
       </c>
@@ -27092,7 +27081,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -27103,12 +27092,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="Y14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>357</v>
       </c>
@@ -27119,12 +27108,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="J16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J17" t="s">
         <v>131</v>
       </c>
@@ -27132,7 +27121,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J18" t="s">
         <v>132</v>
       </c>
@@ -27140,12 +27129,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="10:25" x14ac:dyDescent="0.4">
       <c r="Y19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J20" s="9" t="s">
         <v>39</v>
       </c>
@@ -27153,12 +27142,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J22" t="s">
         <v>134</v>
       </c>
@@ -27166,7 +27155,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J23" t="s">
         <v>155</v>
       </c>
@@ -27174,17 +27163,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="10:25" x14ac:dyDescent="0.4">
       <c r="Y24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J25" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J26" t="s">
         <v>136</v>
       </c>
@@ -27192,7 +27181,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J27" t="s">
         <v>137</v>
       </c>
@@ -27200,7 +27189,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J28" t="s">
         <v>138</v>
       </c>
@@ -27208,18 +27197,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="10:25" x14ac:dyDescent="0.4">
       <c r="Y29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J30" s="8" t="s">
         <v>139</v>
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
         <v>140</v>
       </c>
@@ -27227,7 +27216,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
         <v>141</v>
       </c>
@@ -27235,7 +27224,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J33" t="s">
         <v>142</v>
       </c>
@@ -27243,98 +27232,98 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J35" s="6" t="s">
         <v>95</v>
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J40" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J42" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J44" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J46" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="10:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="10:25" x14ac:dyDescent="0.4">
       <c r="J48" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J49" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J52" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J53" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J54" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J56" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J58" t="s">
         <v>181</v>
       </c>
@@ -27347,7 +27336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27355,28 +27344,28 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I1" s="157"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
         <v>4</v>
       </c>
@@ -27394,7 +27383,7 @@
       </c>
       <c r="I2" s="153"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="153" t="s">
         <v>5</v>
       </c>
@@ -27412,7 +27401,7 @@
       </c>
       <c r="I3" s="153"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="153" t="s">
         <v>2</v>
       </c>
@@ -27430,7 +27419,7 @@
       </c>
       <c r="I4" s="153"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="153" t="s">
         <v>3</v>
       </c>
@@ -27448,7 +27437,7 @@
       </c>
       <c r="I5" s="153"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="153" t="s">
         <v>6</v>
       </c>
@@ -27466,7 +27455,7 @@
       </c>
       <c r="I6" s="153"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="153" t="s">
         <v>7</v>
       </c>
@@ -27484,7 +27473,7 @@
       </c>
       <c r="I7" s="153"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="153" t="s">
         <v>8</v>
       </c>
@@ -27502,7 +27491,7 @@
       </c>
       <c r="I8" s="153"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="153" t="s">
         <v>20</v>
       </c>
@@ -27520,7 +27509,7 @@
       </c>
       <c r="I9" s="153"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="153" t="s">
         <v>21</v>
       </c>
@@ -27538,7 +27527,7 @@
       </c>
       <c r="I10" s="153"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="153" t="s">
         <v>27</v>
       </c>
@@ -27556,7 +27545,7 @@
       </c>
       <c r="I11" s="153"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="153" t="s">
         <v>31</v>
       </c>
@@ -27574,7 +27563,7 @@
       </c>
       <c r="I12" s="153"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="153" t="s">
         <v>32</v>
       </c>
@@ -27592,7 +27581,7 @@
       </c>
       <c r="I13" s="153"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="153" t="s">
         <v>33</v>
       </c>
@@ -27610,7 +27599,7 @@
       </c>
       <c r="I14" s="153"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="153" t="s">
         <v>34</v>
       </c>
@@ -27628,7 +27617,7 @@
       </c>
       <c r="I15" s="153"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="153" t="s">
         <v>35</v>
       </c>
@@ -27646,7 +27635,7 @@
       </c>
       <c r="I16" s="153"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="153" t="s">
         <v>45</v>
       </c>
@@ -27664,7 +27653,7 @@
       </c>
       <c r="I17" s="153"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="153" t="s">
         <v>58</v>
       </c>
@@ -27682,7 +27671,7 @@
       </c>
       <c r="I18" s="153"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="153" t="s">
         <v>72</v>
       </c>
@@ -27698,7 +27687,7 @@
       <c r="H19" s="153"/>
       <c r="I19" s="153"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="153" t="s">
         <v>75</v>
       </c>
@@ -27714,7 +27703,7 @@
       <c r="H20" s="153"/>
       <c r="I20" s="153"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="153" t="s">
         <v>78</v>
       </c>
@@ -27728,7 +27717,7 @@
       </c>
       <c r="F21" s="153"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="153" t="s">
         <v>94</v>
       </c>
@@ -27742,7 +27731,7 @@
       </c>
       <c r="F22" s="153"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="153" t="s">
         <v>146</v>
       </c>
@@ -27756,7 +27745,7 @@
       </c>
       <c r="F23" s="156"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="153" t="s">
         <v>148</v>
       </c>
@@ -27770,7 +27759,7 @@
       </c>
       <c r="F24" s="153"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="153" t="s">
         <v>171</v>
       </c>
@@ -27784,11 +27773,79 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27805,79 +27862,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27885,14 +27874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>213</v>
       </c>
@@ -27909,7 +27898,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>233</v>
       </c>
@@ -27926,7 +27915,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>234</v>
       </c>
@@ -27943,7 +27932,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>235</v>
       </c>
@@ -27960,7 +27949,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>231</v>
       </c>
@@ -27971,7 +27960,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>232</v>
       </c>
@@ -27982,12 +27971,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>237</v>
       </c>
@@ -28001,7 +27990,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>239</v>
       </c>
@@ -28015,17 +28004,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>244</v>
       </c>
@@ -28042,57 +28031,57 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F40" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F42" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F43" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F44" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F45" t="s">
         <v>259</v>
       </c>
@@ -28106,568 +28095,568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:J49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-    </row>
-    <row r="3" spans="2:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
-    </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-    </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-    </row>
-    <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F10" s="71"/>
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
-    </row>
-    <row r="12" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="87"/>
+    </row>
+    <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-    </row>
-    <row r="13" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+    </row>
+    <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F13" s="71"/>
+      <c r="G13" s="86"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
-    </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="87"/>
+    </row>
+    <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
-    </row>
-    <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="98" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="90"/>
+    </row>
+    <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="94" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="65">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+    </row>
+    <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="91">
         <v>44880</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="97" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="92"/>
+      <c r="C20" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="92"/>
+      <c r="C21" s="102" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
-    </row>
-    <row r="22" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+    </row>
+    <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="93"/>
+      <c r="C22" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-    </row>
-    <row r="23" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="65">
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+    </row>
+    <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="91">
         <v>44881</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="92"/>
+      <c r="C24" s="110" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-    </row>
-    <row r="25" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="93"/>
+      <c r="C25" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-    </row>
-    <row r="26" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="65">
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="91">
         <v>44882</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="92"/>
+      <c r="C27" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
+    </row>
+    <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="93"/>
+      <c r="C28" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-    </row>
-    <row r="29" spans="2:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="65">
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
+    </row>
+    <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="91">
         <v>44883</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="92"/>
+      <c r="C30" s="116" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="92"/>
+      <c r="C31" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-    </row>
-    <row r="32" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
+    </row>
+    <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="93"/>
+      <c r="C32" s="107" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
+    </row>
+    <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="119" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-    </row>
-    <row r="34" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
+    </row>
+    <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="63">
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
+    </row>
+    <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="137">
         <v>44886</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="40"/>
+      <c r="C36" s="139" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="141"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="138"/>
+      <c r="C37" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-    </row>
-    <row r="38" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="65">
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="80"/>
+    </row>
+    <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="91">
         <v>44887</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="124" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="125"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="92"/>
+      <c r="C39" s="103" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-    </row>
-    <row r="40" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="93"/>
+      <c r="C40" s="126" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="80" t="s">
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
+    </row>
+    <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="144" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="129" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="145"/>
+      <c r="C42" s="132" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="43" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="133"/>
+    </row>
+    <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="146"/>
+      <c r="C43" s="134" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-    </row>
-    <row r="44" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="136"/>
+    </row>
+    <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="138" t="s">
+    <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
-    </row>
-    <row r="46" spans="2:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="133" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+    </row>
+    <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136" t="s">
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
-    </row>
-    <row r="47" spans="2:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="141" t="s">
+      <c r="I46" s="61"/>
+      <c r="J46" s="62"/>
+    </row>
+    <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="38" t="s">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I47" s="30"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="33" t="s">
         <v>627</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I48" s="41"/>
+      <c r="J48" s="51"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I49" s="41"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="143" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="144"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="143" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="144"/>
-      <c r="J50" s="146"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I50" s="55"/>
+      <c r="J50" s="57"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>631</v>
       </c>
@@ -28675,73 +28664,56 @@
         <v>641</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>632</v>
       </c>
       <c r="G54" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>637</v>
       </c>
-      <c r="G55" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28758,21 +28730,35 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28782,204 +28768,204 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>295</v>
       </c>
@@ -28992,204 +28978,204 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>556</v>
       </c>
@@ -29202,79 +29188,79 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:13" x14ac:dyDescent="0.4">
       <c r="I18" s="17"/>
       <c r="M18" s="17"/>
     </row>
@@ -29286,34 +29272,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -29325,7 +29311,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -29337,7 +29323,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -29349,7 +29335,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>427</v>
       </c>
@@ -29361,7 +29347,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -29371,7 +29357,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -29383,7 +29369,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -29395,53 +29381,53 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>429</v>
       </c>
@@ -29453,159 +29439,159 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>330</v>
       </c>
@@ -29617,67 +29603,67 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="147" t="s">
         <v>75</v>
       </c>
@@ -29709,147 +29695,158 @@
       </c>
       <c r="P18" s="149"/>
     </row>
-    <row r="19" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="141" t="s">
+    <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="41"/>
+      <c r="O20" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P20" s="51"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="52" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P21" s="53"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>579</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29866,17 +29863,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29886,96 +29872,96 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>509</v>
       </c>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="646">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -8046,6 +8046,38 @@
   </si>
   <si>
     <t>キーボードのイラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1個前の場所に星が出ないように</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・星の色を変える</t>
+    <rPh sb="1" eb="2">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -28096,10 +28128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J61"/>
+  <dimension ref="B1:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28677,23 +28709,33 @@
         <v>637</v>
       </c>
     </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>644</v>
+      </c>
+    </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
         <v>642</v>
       </c>
     </row>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="648">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -8077,6 +8077,23 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボスの点数</t>
+    <rPh sb="4" eb="6">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1000000の点数表示</t>
+    <rPh sb="9" eb="11">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9052,7 +9069,31 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9061,19 +9102,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9082,109 +9129,217 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9203,18 +9358,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9247,173 +9390,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9436,7 +9453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9445,7 +9462,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25629,49 +25646,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29">
+      <c r="B3" s="52">
         <v>44847</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="46"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="32">
+      <c r="B4" s="50">
         <v>44849</v>
       </c>
       <c r="C4" s="33"/>
@@ -25683,17 +25700,17 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>333</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="32">
+      <c r="B5" s="50">
         <v>44850</v>
       </c>
       <c r="C5" s="33"/>
@@ -25705,20 +25722,20 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="32" t="s">
         <v>334</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="34">
+      <c r="B6" s="44">
         <v>44875</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="33" t="s">
         <v>395</v>
       </c>
@@ -25727,18 +25744,18 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="32" t="s">
         <v>396</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
         <v>436</v>
       </c>
@@ -25747,20 +25764,20 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="32" t="s">
         <v>446</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="34">
+      <c r="B8" s="44">
         <v>44880</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="33" t="s">
         <v>478</v>
       </c>
@@ -25769,16 +25786,16 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
         <v>479</v>
       </c>
@@ -25787,16 +25804,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="33" t="s">
         <v>500</v>
       </c>
@@ -25805,20 +25822,20 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="32" t="s">
         <v>501</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="34">
+      <c r="B11" s="44">
         <v>44882</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="33" t="s">
         <v>536</v>
       </c>
@@ -25827,18 +25844,18 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="32" t="s">
         <v>537</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
         <v>558</v>
       </c>
@@ -25847,16 +25864,16 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
         <v>572</v>
       </c>
@@ -25865,18 +25882,18 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="32" t="s">
         <v>573</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="33" t="s">
         <v>580</v>
       </c>
@@ -25885,134 +25902,135 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="49"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="40">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="51"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="51"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="51"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -26025,26 +26043,25 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27382,20 +27399,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="157" t="s">
+      <c r="A1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="H1" s="157" t="s">
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="153" t="s">
@@ -27805,79 +27822,11 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27894,11 +27843,79 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28128,10 +28145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J62"/>
+  <dimension ref="B1:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28145,543 +28162,543 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
         <v>44852</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>44890</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
         <v>44891</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>44895</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="117"/>
+      <c r="E10" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="86"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="87"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="129"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="87"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="129"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="132"/>
     </row>
     <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="91">
+      <c r="B19" s="65">
         <v>44880</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="92"/>
-      <c r="C20" s="100" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="92"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="93"/>
-      <c r="C22" s="107" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="74" t="s">
         <v>496</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="91">
+      <c r="B23" s="65">
         <v>44881</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="92"/>
-      <c r="C24" s="110" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="88" t="s">
         <v>486</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="93"/>
-      <c r="C25" s="107" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="91">
+      <c r="B26" s="65">
         <v>44882</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="92"/>
-      <c r="C27" s="113" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="93"/>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="91">
+      <c r="B29" s="65">
         <v>44883</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="71" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="92"/>
-      <c r="C30" s="116" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="92"/>
-      <c r="C31" s="110" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="93"/>
-      <c r="C32" s="107" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>44884</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="121"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="21">
         <v>44885</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="123"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="137">
+      <c r="B35" s="63">
         <v>44886</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="139" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="68" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="141"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="138"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="91">
+      <c r="B38" s="65">
         <v>44887</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="125"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="92"/>
-      <c r="C39" s="103" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="77" t="s">
         <v>488</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="93"/>
-      <c r="C40" s="126" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="128"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="145"/>
-      <c r="C42" s="132" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="133"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="146"/>
-      <c r="C43" s="134" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="136"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="138" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="133" t="s">
         <v>620</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60" t="s">
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135" t="s">
         <v>621</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61" t="s">
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136" t="s">
         <v>622</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
     </row>
     <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="141" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="30" t="s">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30" t="s">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38" t="s">
         <v>626</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="46"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="33" t="s">
         <v>627</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="51"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="51"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="54" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="143" t="s">
         <v>635</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="54" t="s">
+      <c r="F50" s="144"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="143" t="s">
         <v>633</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="146"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="9" t="s">
@@ -28739,23 +28756,47 @@
         <v>642</v>
       </c>
     </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E4:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="C10:D12"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -28772,35 +28813,21 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E4:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29738,35 +29765,35 @@
       <c r="P18" s="149"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="141" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="142" t="s">
         <v>511</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67" t="s">
+      <c r="F19" s="142"/>
+      <c r="G19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="H19" s="150"/>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="142"/>
+      <c r="K19" s="142" t="s">
         <v>513</v>
       </c>
       <c r="L19" s="150"/>
       <c r="M19" s="152" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142" t="s">
         <v>512</v>
       </c>
       <c r="P19" s="150"/>
@@ -29775,61 +29802,61 @@
       <c r="A20" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="H20" s="51"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="P20" s="51"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -29878,17 +29905,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29905,6 +29921,17 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Documents\HukuokaGameContest\2DHukuokaGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,10 @@
     <sheet name="シーン" sheetId="8" r:id="rId13"/>
     <sheet name="敵の出現方法" sheetId="18" r:id="rId14"/>
     <sheet name="BGM・SE" sheetId="17" r:id="rId15"/>
-    <sheet name="遊び案" sheetId="10" state="hidden" r:id="rId16"/>
-    <sheet name="ブレスト" sheetId="2" state="hidden" r:id="rId17"/>
-    <sheet name="世界観 仮" sheetId="14" state="hidden" r:id="rId18"/>
+    <sheet name="動画構成" sheetId="20" r:id="rId16"/>
+    <sheet name="遊び案" sheetId="10" state="hidden" r:id="rId17"/>
+    <sheet name="ブレスト" sheetId="2" state="hidden" r:id="rId18"/>
+    <sheet name="世界観 仮" sheetId="14" state="hidden" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="623">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -5538,14 +5539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　・エンディング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・ランキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　・選択音</t>
     <rPh sb="2" eb="4">
       <t>センタク</t>
@@ -5896,336 +5889,6 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵が重複する問題</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイミングよくジャンプすると高く飛び過ぎるバグ</t>
-    <rPh sb="14" eb="15">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マックスコンボの表示</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃時、剣が回転するアニメーション</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコアの作成</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カメラの移動を試す(上移動と引き移動)</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>狙っている場所が分かるようにする(カーソル表示)</t>
-    <rPh sb="0" eb="1">
-      <t>ネラ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスを仮作成</t>
-    <rPh sb="3" eb="6">
-      <t>カリサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wave毎に出せる敵を変えられるように</t>
-    <rPh sb="4" eb="5">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xeenの授業で言われた内容を仕様書にまとめる</t>
-    <rPh sb="5" eb="7">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコアの計算方法を決める</t>
-    <rPh sb="4" eb="6">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>β詳細</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>芝辻(緑)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>佐藤(ピンク)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>筈谷(青)</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シバツジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハズタニ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスの動きや攻撃内容を考える</t>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスの調整を一緒にする</t>
-    <rPh sb="3" eb="5">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンボやスコアが増えた時の動きやエフェクト</t>
-    <rPh sb="8" eb="9">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体当たりするだけでコンボが増えるバグ</t>
-    <rPh sb="0" eb="2">
-      <t>タイア</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵その場出現のエフェクトを付ける</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カメラの移動方法を決める</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の設定</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7266,23 +6929,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カーソルの出し方を決める</t>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の配置を考える</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の出現方法</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -7536,16 +7182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>剣が誘拐されるバグ</t>
-    <rPh sb="0" eb="1">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ユウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主人公の設定</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
@@ -7721,81 +7357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11月23日
-11月24日
-11月25日</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃した時に1つ先の敵を攻撃するバグ</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃してから敵に当たるとコンボが増えるバグ</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wave切り替えタイミングで攻撃すると止まるバグ</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>世界観シート追加/スケジュール調整</t>
     <rPh sb="0" eb="3">
       <t>セカイカン</t>
@@ -7915,30 +7476,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>細かい演出一覧</t>
-    <rPh sb="0" eb="1">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・タイトルやリザルトでキャラクターを動かす</t>
-    <rPh sb="18" eb="19">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・リザルトでのクラッカー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>細かい演出</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7957,144 +7494,204 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在の剣の高さが分かるように</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
+    <t>ランダムで出現する敵</t>
+    <rPh sb="5" eb="7">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームのOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・スラッシュゴッドを目指している</t>
+    <rPh sb="11" eb="13">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲームメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・切って上に上がる</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ランダムで出現する敵</t>
-    <rPh sb="6" eb="8">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始前のメッセージ</t>
-    <rPh sb="0" eb="3">
-      <t>カイシマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・木を倒してスラッシュゴッドになる</t>
-    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・切った反動で上に上がる</t>
+    <rPh sb="2" eb="3">
       <t>キ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・木を倒す為には上に行かないといけない</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タメ</t>
+    <rPh sb="5" eb="7">
+      <t>ハンドウ</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>ウエ</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お願いするイラスト</t>
-    <rPh sb="1" eb="2">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゲーム終了時星と敵を消す</t>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・切ってコンボを繋ぐ</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・切りまくって剣力を上げる</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・構成</t>
+    <rPh sb="1" eb="3">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・ゲームのOPに近い物を流す</t>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・テキストで主人公の目的やゲームの目的を出す</t>
+    <rPh sb="8" eb="11">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・敵を切っているところをとにかく見せる</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・左右に切ったり、上に上がったり、色々な切り方を見せる</t>
+    <rPh sb="3" eb="5">
+      <t>サユウ</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>テキ</t>
+      <t>キ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーボードのイラスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・1個前の場所に星が出ないように</t>
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・スラスラタイムや、果物のエリアも見せる</t>
+    <rPh sb="11" eb="13">
+      <t>クダモノ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・ボスやリザルトは見せない</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・細かい操作方法や仕様はあえて書かない</t>
     <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マエ</t>
+      <t>コマ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・星の色を変える</t>
-    <rPh sb="1" eb="2">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ボスの点数</t>
-    <rPh sb="4" eb="6">
-      <t>テンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・1000000の点数表示</t>
-    <rPh sb="9" eb="11">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
+    <t>　・ボス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8102,7 +7699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8209,46 +7806,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF3399"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -8288,7 +7845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -8725,201 +8282,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -8990,7 +8352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9051,15 +8413,6 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9069,10 +8422,79 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9081,266 +8503,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9358,6 +8564,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9390,28 +8608,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9420,31 +8620,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9453,7 +8635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9462,7 +8644,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9489,97 +8671,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>322385</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>87926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>183174</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形吹き出し 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5158154" y="5524503"/>
-          <a:ext cx="3150577" cy="344363"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65779"/>
-            <a:gd name="adj2" fmla="val 33010"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>16</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>日の時点でコンボを繋ぐ遊びは出来るように</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9632,7 +8723,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10820,7 +9911,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13903,7 +12994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14568,7 +13659,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15615,8 +14706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="152400" y="1996440"/>
-          <a:ext cx="7780020" cy="2034540"/>
+          <a:off x="152400" y="2072640"/>
+          <a:ext cx="7947660" cy="2120265"/>
           <a:chOff x="182880" y="3169920"/>
           <a:chExt cx="7780020" cy="2034540"/>
         </a:xfrm>
@@ -16103,8 +15194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="9832697"/>
-          <a:ext cx="6126480" cy="2854603"/>
+          <a:off x="0" y="10232747"/>
+          <a:ext cx="6263640" cy="2978428"/>
           <a:chOff x="0" y="10066737"/>
           <a:chExt cx="6263640" cy="2982515"/>
         </a:xfrm>
@@ -17210,8 +16301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="144780" y="13357860"/>
-          <a:ext cx="5212080" cy="2872740"/>
+          <a:off x="144780" y="13910310"/>
+          <a:ext cx="5318760" cy="2996565"/>
           <a:chOff x="144780" y="12908280"/>
           <a:chExt cx="5212080" cy="2872740"/>
         </a:xfrm>
@@ -19590,8 +18681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="185457" y="24307753"/>
-          <a:ext cx="17355309" cy="2925697"/>
+          <a:off x="185457" y="25317403"/>
+          <a:ext cx="17751549" cy="3049522"/>
           <a:chOff x="185457" y="25339175"/>
           <a:chExt cx="17751549" cy="3049522"/>
         </a:xfrm>
@@ -21131,7 +20222,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21159,8 +20250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5674995" y="518160"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="5796915" y="537210"/>
+          <a:ext cx="5562599" cy="3172998"/>
           <a:chOff x="129540" y="575310"/>
           <a:chExt cx="5562599" cy="3172998"/>
         </a:xfrm>
@@ -21572,8 +20663,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="137160" y="5425440"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="137160" y="5644515"/>
+          <a:ext cx="5562599" cy="3182523"/>
           <a:chOff x="129540" y="556260"/>
           <a:chExt cx="5440679" cy="3049173"/>
         </a:xfrm>
@@ -21677,8 +20768,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="812075" y="5676900"/>
-          <a:ext cx="3843544" cy="2160833"/>
+          <a:off x="827315" y="5905500"/>
+          <a:ext cx="3919744" cy="2256083"/>
           <a:chOff x="812075" y="4533900"/>
           <a:chExt cx="3843544" cy="2160833"/>
         </a:xfrm>
@@ -22096,8 +21187,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5684520" y="5433060"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="5806440" y="5652135"/>
+          <a:ext cx="5562599" cy="3182523"/>
           <a:chOff x="129540" y="556260"/>
           <a:chExt cx="5440679" cy="3049173"/>
         </a:xfrm>
@@ -22201,8 +21292,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6527075" y="5745480"/>
-          <a:ext cx="3820684" cy="2099873"/>
+          <a:off x="6664235" y="5983605"/>
+          <a:ext cx="3912124" cy="2185598"/>
           <a:chOff x="6527075" y="4602480"/>
           <a:chExt cx="3820684" cy="2099873"/>
         </a:xfrm>
@@ -23012,8 +22103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11883935" y="5684520"/>
-          <a:ext cx="3843544" cy="2720341"/>
+          <a:off x="12143015" y="5913120"/>
+          <a:ext cx="3934984" cy="2834641"/>
           <a:chOff x="812075" y="4533900"/>
           <a:chExt cx="3843544" cy="2720341"/>
         </a:xfrm>
@@ -23575,8 +22666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17560835" y="5745480"/>
-          <a:ext cx="3820684" cy="2659380"/>
+          <a:off x="17957075" y="5983605"/>
+          <a:ext cx="3896884" cy="2764155"/>
           <a:chOff x="6527075" y="4602480"/>
           <a:chExt cx="3820684" cy="2659380"/>
         </a:xfrm>
@@ -24654,8 +23745,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="154305" y="525780"/>
-          <a:ext cx="5440679" cy="3049173"/>
+          <a:off x="154305" y="544830"/>
+          <a:ext cx="5562599" cy="3172998"/>
           <a:chOff x="5783580" y="582930"/>
           <a:chExt cx="5562599" cy="3172998"/>
         </a:xfrm>
@@ -25044,7 +24135,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -25646,391 +24737,390 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="52">
+      <c r="B3" s="26">
         <v>44847</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="50">
+      <c r="B4" s="29">
         <v>44849</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="40" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="50">
+      <c r="B5" s="29">
         <v>44850</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="44">
+      <c r="B6" s="31">
         <v>44875</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="32" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="44">
+      <c r="B8" s="31">
         <v>44880</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="45"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="31">
         <v>44882</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="32" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="33" t="s">
-        <v>558</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="45"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="45"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="41">
+      <c r="B15" s="37">
         <v>44888</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="48"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="43"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="B16:C16"/>
@@ -26043,25 +25133,26 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26113,37 +25204,37 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
@@ -26153,42 +25244,42 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -26203,7 +25294,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
@@ -26211,7 +25302,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
@@ -26239,7 +25330,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -26274,12 +25365,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -26394,7 +25485,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
@@ -26434,7 +25525,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
@@ -26467,7 +25558,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -26513,52 +25604,52 @@
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -26593,7 +25684,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -26721,57 +25812,57 @@
     </row>
     <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.4">
@@ -26781,42 +25872,42 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -26836,7 +25927,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -26846,47 +25937,47 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
@@ -26896,17 +25987,17 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -26918,7 +26009,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -26926,7 +26017,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -26951,47 +26042,42 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -27001,6 +26087,102 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y58"/>
   <sheetViews>
@@ -27384,7 +26566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -27399,434 +26581,502 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154" t="s">
+      <c r="F1" s="97"/>
+      <c r="H1" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="154"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="H2" s="153" t="s">
+      <c r="F2" s="93"/>
+      <c r="H2" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="153"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="H3" s="153" t="s">
+      <c r="F3" s="93"/>
+      <c r="H3" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="H4" s="153" t="s">
+      <c r="F4" s="93"/>
+      <c r="H4" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="153"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153" t="s">
+      <c r="D5" s="93"/>
+      <c r="E5" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="H5" s="153" t="s">
+      <c r="F5" s="93"/>
+      <c r="H5" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="I5" s="153"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153" t="s">
+      <c r="D6" s="93"/>
+      <c r="E6" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="H6" s="153" t="s">
+      <c r="F6" s="93"/>
+      <c r="H6" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="153"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153" t="s">
+      <c r="D7" s="93"/>
+      <c r="E7" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="153"/>
-      <c r="H7" s="153" t="s">
+      <c r="F7" s="93"/>
+      <c r="H7" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="153"/>
+      <c r="I7" s="93"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="93"/>
+      <c r="E8" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="H8" s="153" t="s">
+      <c r="F8" s="93"/>
+      <c r="H8" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="I8" s="153"/>
+      <c r="I8" s="93"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="155" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="156"/>
-      <c r="H9" s="153" t="s">
+      <c r="F9" s="96"/>
+      <c r="H9" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="I9" s="153"/>
+      <c r="I9" s="93"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153" t="s">
+      <c r="D10" s="93"/>
+      <c r="E10" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="153"/>
-      <c r="H10" s="153" t="s">
+      <c r="F10" s="93"/>
+      <c r="H10" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="I10" s="153"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153" t="s">
+      <c r="D11" s="93"/>
+      <c r="E11" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="153"/>
-      <c r="H11" s="153" t="s">
+      <c r="F11" s="93"/>
+      <c r="H11" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="I11" s="153"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="155" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="153" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="H12" s="153" t="s">
+      <c r="F12" s="93"/>
+      <c r="H12" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="I12" s="153"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="H13" s="153" t="s">
+      <c r="F13" s="93"/>
+      <c r="H13" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I13" s="153"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="153"/>
-      <c r="H14" s="153" t="s">
+      <c r="F14" s="93"/>
+      <c r="H14" s="93" t="s">
         <v>341</v>
       </c>
-      <c r="I14" s="153"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="153"/>
-      <c r="H15" s="153" t="s">
+      <c r="F15" s="93"/>
+      <c r="H15" s="93" t="s">
         <v>342</v>
       </c>
-      <c r="I15" s="153"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153" t="s">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="153"/>
-      <c r="E16" s="155" t="s">
+      <c r="D16" s="93"/>
+      <c r="E16" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="156"/>
-      <c r="H16" s="153" t="s">
+      <c r="F16" s="96"/>
+      <c r="H16" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="I16" s="153"/>
+      <c r="I16" s="93"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153" t="s">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="153"/>
-      <c r="H17" s="153" t="s">
+      <c r="F17" s="93"/>
+      <c r="H17" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="I17" s="153"/>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153" t="s">
+      <c r="D18" s="93"/>
+      <c r="E18" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="H18" s="153" t="s">
+      <c r="F18" s="93"/>
+      <c r="H18" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="I18" s="153"/>
+      <c r="I18" s="93"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153" t="s">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
+      <c r="F19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153" t="s">
+      <c r="D20" s="93"/>
+      <c r="E20" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
+      <c r="F20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="153" t="s">
+      <c r="A21" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="153"/>
-      <c r="C21" s="155" t="s">
+      <c r="B21" s="93"/>
+      <c r="C21" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="156"/>
-      <c r="E21" s="153" t="s">
+      <c r="D21" s="96"/>
+      <c r="E21" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="153"/>
+      <c r="F21" s="93"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153" t="s">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153" t="s">
+      <c r="D22" s="93"/>
+      <c r="E22" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="153"/>
+      <c r="F22" s="93"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="153"/>
-      <c r="C23" s="153" t="s">
+      <c r="B23" s="93"/>
+      <c r="C23" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="155" t="s">
+      <c r="D23" s="93"/>
+      <c r="E23" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="156"/>
+      <c r="F23" s="96"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153" t="s">
+      <c r="D24" s="93"/>
+      <c r="E24" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="153"/>
+      <c r="F24" s="93"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
@@ -27843,86 +27093,18 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S45"/>
   <sheetViews>
@@ -28145,10 +27327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J65"/>
+  <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28162,629 +27344,270 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>44852</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>44890</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>44891</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>44895</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="129"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="127" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="128"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="129"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="132"/>
-    </row>
-    <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="98" t="s">
-        <v>492</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="65">
-        <v>44880</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
-      <c r="C20" s="104" t="s">
-        <v>481</v>
-      </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="66"/>
-      <c r="C21" s="58" t="s">
-        <v>483</v>
-      </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="106"/>
-    </row>
-    <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="67"/>
-      <c r="C22" s="74" t="s">
-        <v>496</v>
-      </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="65">
-        <v>44881</v>
-      </c>
-      <c r="C23" s="71" t="s">
-        <v>498</v>
-      </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="88" t="s">
-        <v>486</v>
-      </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="67"/>
-      <c r="C25" s="74" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="84"/>
+    </row>
+    <row r="16" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="60" t="s">
+        <v>591</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="55" t="s">
+        <v>592</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57" t="s">
+        <v>593</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="63" t="s">
+        <v>595</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="65">
-        <v>44882</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>491</v>
-      </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="109" t="s">
-        <v>485</v>
-      </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
-        <v>482</v>
-      </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-    </row>
-    <row r="29" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="65">
-        <v>44883</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>583</v>
-      </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="66"/>
-      <c r="C30" s="114" t="s">
-        <v>584</v>
-      </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="66"/>
-      <c r="C31" s="88" t="s">
-        <v>489</v>
-      </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-    </row>
-    <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="74" t="s">
-        <v>484</v>
-      </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-    </row>
-    <row r="33" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="20">
-        <v>44884</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>499</v>
-      </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-    </row>
-    <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="21">
-        <v>44885</v>
-      </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
-    </row>
-    <row r="35" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
-        <v>44886</v>
-      </c>
-      <c r="C35" s="71" t="s">
-        <v>493</v>
-      </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="68" t="s">
-        <v>497</v>
-      </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="64"/>
-      <c r="C37" s="74" t="s">
-        <v>487</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-    </row>
-    <row r="38" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="65">
-        <v>44887</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>494</v>
-      </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="66"/>
-      <c r="C39" s="77" t="s">
-        <v>488</v>
-      </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="67"/>
-      <c r="C40" s="93" t="s">
-        <v>495</v>
-      </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>613</v>
-      </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="81"/>
-      <c r="C42" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="43" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="82"/>
-      <c r="C43" s="60" t="s">
-        <v>615</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-    </row>
-    <row r="44" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="22"/>
-    </row>
-    <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="138" t="s">
-        <v>619</v>
-      </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
-    </row>
-    <row r="46" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="133" t="s">
-        <v>620</v>
-      </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135" t="s">
-        <v>621</v>
-      </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136" t="s">
-        <v>622</v>
-      </c>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
-    </row>
-    <row r="47" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="141" t="s">
-        <v>623</v>
-      </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="38" t="s">
-        <v>628</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="42" t="s">
-        <v>629</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="27" t="s">
-        <v>625</v>
-      </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="42" t="s">
-        <v>624</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
-        <v>634</v>
-      </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="143" t="s">
-        <v>635</v>
-      </c>
-      <c r="F50" s="144"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="143" t="s">
-        <v>633</v>
-      </c>
-      <c r="I50" s="144"/>
-      <c r="J50" s="146"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="9" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>631</v>
-      </c>
-      <c r="G53" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
-        <v>632</v>
-      </c>
-      <c r="G54" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
-        <v>647</v>
-      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="64" t="s">
+        <v>601</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="C29:G29"/>
+  <mergeCells count="28">
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E4:G6"/>
     <mergeCell ref="E2:G2"/>
@@ -28797,42 +27620,26 @@
     <mergeCell ref="C4:D6"/>
     <mergeCell ref="C7:D9"/>
     <mergeCell ref="C10:D12"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29106,7 +27913,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -29171,7 +27978,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
@@ -29231,7 +28038,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -29241,12 +28048,12 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -29266,67 +28073,67 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.4">
@@ -29729,182 +28536,193 @@
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86" t="s">
+        <v>497</v>
+      </c>
+      <c r="H18" s="89"/>
+      <c r="I18" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86" t="s">
+        <v>509</v>
+      </c>
+      <c r="P18" s="89"/>
+    </row>
+    <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="87" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="87" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88" t="s">
+        <v>491</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="87" t="s">
+        <v>506</v>
+      </c>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88" t="s">
+        <v>492</v>
+      </c>
+      <c r="L19" s="90"/>
+      <c r="M19" s="92" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148" t="s">
-        <v>510</v>
-      </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="147" t="s">
-        <v>517</v>
-      </c>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148" t="s">
-        <v>518</v>
-      </c>
-      <c r="H18" s="149"/>
-      <c r="I18" s="147" t="s">
-        <v>526</v>
-      </c>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="151" t="s">
-        <v>529</v>
-      </c>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148" t="s">
-        <v>530</v>
-      </c>
-      <c r="P18" s="149"/>
-    </row>
-    <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="141" t="s">
-        <v>516</v>
-      </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142" t="s">
+      <c r="N19" s="88"/>
+      <c r="O19" s="88" t="s">
+        <v>491</v>
+      </c>
+      <c r="P19" s="90"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="47" t="s">
         <v>511</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="141" t="s">
-        <v>519</v>
-      </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142" t="s">
+      <c r="N20" s="38"/>
+      <c r="O20" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="P20" s="48"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="150"/>
-      <c r="I19" s="141" t="s">
-        <v>527</v>
-      </c>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142" t="s">
-        <v>513</v>
-      </c>
-      <c r="L19" s="150"/>
-      <c r="M19" s="152" t="s">
-        <v>531</v>
-      </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142" t="s">
-        <v>512</v>
-      </c>
-      <c r="P19" s="150"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="43" t="s">
-        <v>520</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
-        <v>618</v>
-      </c>
-      <c r="P21" s="31"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="P21" s="50"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="K19:L21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -29921,17 +28739,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29965,7 +28772,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -29995,7 +28802,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -30032,7 +28839,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/2DHukuokaGameContest2023/仕様書.xlsx
+++ b/2DHukuokaGameContest2023/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA3\Documents\HukuokaGameContest\2DHukuokaGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="更新内容" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="616">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -7370,137 +7370,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1000000スコア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残り期間でやりたいこと</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芝辻</t>
-    <rPh sb="0" eb="2">
-      <t>シバツジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>佐藤</t>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>筈谷</t>
-    <rPh sb="0" eb="2">
-      <t>ハズタニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵配置調整</t>
-    <rPh sb="0" eb="3">
-      <t>テキハイチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM/SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始前の主人公の演出</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FEVER演出</t>
-    <rPh sb="5" eb="7">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボス完成(登場から死まで)</t>
-    <rPh sb="2" eb="4">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵出現のエフェクト</t>
-    <rPh sb="0" eb="3">
-      <t>テキシュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスの難易度調整</t>
-    <rPh sb="3" eb="6">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>細かい演出</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃カーソルの調整</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーン移動や細かい演出</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランダムで出現する敵</t>
-    <rPh sb="5" eb="7">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>テキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7692,6 +7562,129 @@
   </si>
   <si>
     <t>　・ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「僕の名前はケン」</t>
+    <rPh sb="1" eb="2">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「早速特訓内容を教えるよ！」</t>
+    <rPh sb="1" eb="3">
+      <t>サッソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トックン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「切りまくってコンボを繋ごう！」</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「コンボを繋ぐと、剣力(スコア)が上がるよ！」</t>
+    <rPh sb="5" eb="6">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「切って、切って、切りまくれ！」</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「特訓内容は『切る』それだけ」</t>
+    <rPh sb="1" eb="3">
+      <t>トックン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「僕はこの世界で最強の剣”スラッシュゴッド”になるための特訓中！」</t>
+    <rPh sb="1" eb="2">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>トックンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「上手く切って、最高剣力を目指そう！」</t>
+    <rPh sb="1" eb="3">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メザ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7807,7 +7800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7826,26 +7819,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -8246,43 +8221,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -8309,50 +8247,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8422,6 +8323,18 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8458,10 +8371,10 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -8504,48 +8417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8626,7 +8497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9368,8 +9239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2975610" y="8637270"/>
-          <a:ext cx="209550" cy="209550"/>
+          <a:off x="3036570" y="8997315"/>
+          <a:ext cx="209550" cy="219075"/>
           <a:chOff x="8012430" y="8823960"/>
           <a:chExt cx="266700" cy="266700"/>
         </a:xfrm>
@@ -9637,7 +9508,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7105650" y="8728711"/>
+          <a:off x="7258050" y="9098281"/>
           <a:ext cx="209550" cy="209550"/>
           <a:chOff x="8012430" y="8823960"/>
           <a:chExt cx="266700" cy="266700"/>
@@ -24737,368 +24608,368 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="26">
+      <c r="B3" s="30">
         <v>44847</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="43"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="29">
+      <c r="B4" s="33">
         <v>44849</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="44" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="45"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="29">
+      <c r="B5" s="33">
         <v>44850</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="46" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="45"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="31">
+      <c r="B6" s="35">
         <v>44875</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="46" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="45"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="46" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="45"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="31">
+      <c r="B8" s="35">
         <v>44880</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="45"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="45"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="46" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="45"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="31">
+      <c r="B11" s="35">
         <v>44882</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="46" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="45"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="45"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="30" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="46" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="50" t="s">
         <v>552</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="45"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="45"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="37">
+      <c r="B15" s="41">
         <v>44888</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42" t="s">
         <v>588</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="48"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="52"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="48"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="52"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="48"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="52"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="48"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="52"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="48"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="52"/>
     </row>
     <row r="20" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="50"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -26042,7 +25913,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -26088,92 +25959,119 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B19"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+        <v>590</v>
+      </c>
+      <c r="I2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+        <v>591</v>
+      </c>
+      <c r="I3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>596</v>
+      </c>
+      <c r="I4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="I7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>594</v>
+      </c>
+      <c r="I8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>597</v>
+      </c>
+      <c r="I10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+      <c r="I11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>600</v>
+      </c>
+      <c r="I13" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -26581,426 +26479,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="97" t="s">
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97" t="s">
+      <c r="D1" s="87"/>
+      <c r="E1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="H1" s="97" t="s">
+      <c r="F1" s="87"/>
+      <c r="H1" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="97"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="H2" s="93" t="s">
+      <c r="F2" s="83"/>
+      <c r="H2" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="H3" s="93" t="s">
+      <c r="F3" s="83"/>
+      <c r="H3" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="93"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="H4" s="93" t="s">
+      <c r="F4" s="83"/>
+      <c r="H4" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="93"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="H5" s="93" t="s">
+      <c r="F5" s="83"/>
+      <c r="H5" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="I5" s="93"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93" t="s">
+      <c r="D6" s="83"/>
+      <c r="E6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="H6" s="93" t="s">
+      <c r="F6" s="83"/>
+      <c r="H6" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="93"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="H7" s="93" t="s">
+      <c r="F7" s="83"/>
+      <c r="H7" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="93"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="H8" s="93" t="s">
+      <c r="F8" s="83"/>
+      <c r="H8" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="I8" s="93"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="95" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="H9" s="93" t="s">
+      <c r="F9" s="86"/>
+      <c r="H9" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="I9" s="93"/>
+      <c r="I9" s="83"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="H10" s="93" t="s">
+      <c r="F10" s="83"/>
+      <c r="H10" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="I10" s="93"/>
+      <c r="I10" s="83"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93" t="s">
+      <c r="D11" s="83"/>
+      <c r="E11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="H11" s="93" t="s">
+      <c r="F11" s="83"/>
+      <c r="H11" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="I11" s="93"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="95" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="93" t="s">
+      <c r="D12" s="86"/>
+      <c r="E12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="H12" s="93" t="s">
+      <c r="F12" s="83"/>
+      <c r="H12" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="I12" s="93"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="H13" s="93" t="s">
+      <c r="F13" s="83"/>
+      <c r="H13" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="I13" s="93"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="H14" s="93" t="s">
+      <c r="F14" s="83"/>
+      <c r="H14" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93" t="s">
+      <c r="D15" s="83"/>
+      <c r="E15" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="H15" s="93" t="s">
+      <c r="F15" s="83"/>
+      <c r="H15" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="I15" s="93"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="95" t="s">
+      <c r="D16" s="83"/>
+      <c r="E16" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="H16" s="93" t="s">
+      <c r="F16" s="86"/>
+      <c r="H16" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="I16" s="93"/>
+      <c r="I16" s="83"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93" t="s">
+      <c r="D17" s="83"/>
+      <c r="E17" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="H17" s="93" t="s">
+      <c r="F17" s="83"/>
+      <c r="H17" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="I17" s="93"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93" t="s">
+      <c r="D18" s="83"/>
+      <c r="E18" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="H18" s="93" t="s">
+      <c r="F18" s="83"/>
+      <c r="H18" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="I18" s="93"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93" t="s">
+      <c r="D19" s="83"/>
+      <c r="E19" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
+      <c r="F19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93" t="s">
+      <c r="D20" s="83"/>
+      <c r="E20" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
+      <c r="F20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="95" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="93" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="93"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93" t="s">
+      <c r="B22" s="83"/>
+      <c r="C22" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="83"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93" t="s">
+      <c r="B23" s="83"/>
+      <c r="C23" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="95" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="96"/>
+      <c r="F23" s="86"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93" t="s">
+      <c r="D24" s="83"/>
+      <c r="E24" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="93"/>
+      <c r="F24" s="83"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -27327,11 +27225,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:J17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -27344,270 +27240,285 @@
       <c r="B2" s="18">
         <v>44850</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="19">
         <v>44851</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="20">
         <v>44852</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="22">
         <v>44890</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="20">
         <v>44891</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="22">
         <v>44895</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>44896</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="69" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="81"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15">
         <v>44910</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>44911</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="79" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="80"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="81"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="84"/>
-    </row>
-    <row r="16" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="60" t="s">
-        <v>591</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="18" spans="2:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="55" t="s">
-        <v>592</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57" t="s">
-        <v>593</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58" t="s">
-        <v>594</v>
-      </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-    </row>
-    <row r="19" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="63" t="s">
-        <v>595</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="64" t="s">
-        <v>601</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="45"/>
-    </row>
-    <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="40" t="s">
-        <v>589</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="51" t="s">
-        <v>604</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51" t="s">
-        <v>602</v>
-      </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="9"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="74"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="12">
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E4:G6"/>
     <mergeCell ref="E2:G2"/>
@@ -27620,22 +27531,6 @@
     <mergeCell ref="C4:D6"/>
     <mergeCell ref="C7:D9"/>
     <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28540,130 +28435,130 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="85" t="s">
+      <c r="D18" s="79"/>
+      <c r="E18" s="75" t="s">
         <v>496</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86" t="s">
+      <c r="F18" s="76"/>
+      <c r="G18" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="85" t="s">
+      <c r="H18" s="79"/>
+      <c r="I18" s="75" t="s">
         <v>505</v>
       </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="91" t="s">
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="81" t="s">
         <v>508</v>
       </c>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86" t="s">
+      <c r="N18" s="76"/>
+      <c r="O18" s="76" t="s">
         <v>509</v>
       </c>
-      <c r="P18" s="89"/>
+      <c r="P18" s="79"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="77" t="s">
         <v>495</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="78" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="87" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="77" t="s">
         <v>498</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="78" t="s">
         <v>491</v>
       </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="87" t="s">
+      <c r="H19" s="80"/>
+      <c r="I19" s="77" t="s">
         <v>506</v>
       </c>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88" t="s">
+      <c r="J19" s="78"/>
+      <c r="K19" s="78" t="s">
         <v>492</v>
       </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="92" t="s">
+      <c r="L19" s="80"/>
+      <c r="M19" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88" t="s">
+      <c r="N19" s="78"/>
+      <c r="O19" s="78" t="s">
         <v>491</v>
       </c>
-      <c r="P19" s="90"/>
+      <c r="P19" s="80"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="39" t="s">
+      <c r="D20" s